--- a/BOM/BOM7.5.xlsx
+++ b/BOM/BOM7.5.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10611"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Frank Ruan\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/frank/Downloads/ALD/BOM/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9F4A59D-4965-4E29-865C-5CF5B74A4FC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C49C06C3-8EC5-2943-A59D-E587E10175FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1065" yWindow="255" windowWidth="21300" windowHeight="12510" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="All" sheetId="1" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10691" uniqueCount="1157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10691" uniqueCount="1166">
   <si>
     <t>P181879-100g</t>
   </si>
@@ -3567,6 +3567,42 @@
   </si>
   <si>
     <t>TE230009369</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BOM类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>制造此产品</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>操作类型/ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Consumption</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>制造准备就绪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>版本</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当所有组件都可用时</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>灵活</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>__export__.stock_picking_type_274_7b3e922b</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3574,7 +3610,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3747,7 +3783,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Sheet1"/>
@@ -4184,16 +4220,16 @@
       <selection activeCell="D183" sqref="D183"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="15.375" customWidth="1"/>
-    <col min="4" max="4" width="9.125" customWidth="1"/>
+    <col min="1" max="1" width="15.33203125" customWidth="1"/>
+    <col min="4" max="4" width="9.1640625" customWidth="1"/>
     <col min="5" max="5" width="17.5" customWidth="1"/>
-    <col min="6" max="6" width="12.375" customWidth="1"/>
-    <col min="7" max="7" width="14.625" customWidth="1"/>
+    <col min="6" max="6" width="12.33203125" customWidth="1"/>
+    <col min="7" max="7" width="14.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
         <v>171</v>
       </c>
@@ -4201,7 +4237,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -4209,7 +4245,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -4217,7 +4253,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -4225,7 +4261,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -4233,7 +4269,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -4241,7 +4277,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -4249,7 +4285,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:2">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -4257,7 +4293,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:2">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -4265,7 +4301,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:2">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -4273,7 +4309,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:2">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -4281,7 +4317,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:2">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -4289,7 +4325,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:2">
       <c r="A13" t="s">
         <v>11</v>
       </c>
@@ -4297,7 +4333,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:2">
       <c r="A14" t="s">
         <v>12</v>
       </c>
@@ -4305,7 +4341,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:2">
       <c r="A15" t="s">
         <v>13</v>
       </c>
@@ -4313,7 +4349,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:2">
       <c r="A16" t="s">
         <v>14</v>
       </c>
@@ -4321,7 +4357,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:2">
       <c r="A17" t="s">
         <v>15</v>
       </c>
@@ -4329,7 +4365,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:2">
       <c r="A18" t="s">
         <v>16</v>
       </c>
@@ -4337,7 +4373,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:2">
       <c r="A19" t="s">
         <v>17</v>
       </c>
@@ -4345,7 +4381,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:2">
       <c r="A20" t="s">
         <v>18</v>
       </c>
@@ -4353,7 +4389,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:2">
       <c r="A21" t="s">
         <v>19</v>
       </c>
@@ -4361,7 +4397,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:2">
       <c r="A22" t="s">
         <v>20</v>
       </c>
@@ -4369,7 +4405,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:2">
       <c r="A23" t="s">
         <v>21</v>
       </c>
@@ -4377,7 +4413,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:2">
       <c r="A24" t="s">
         <v>22</v>
       </c>
@@ -4385,7 +4421,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:2">
       <c r="A25" t="s">
         <v>23</v>
       </c>
@@ -4393,7 +4429,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:2">
       <c r="A26" t="s">
         <v>24</v>
       </c>
@@ -4401,7 +4437,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:2">
       <c r="A27" t="s">
         <v>25</v>
       </c>
@@ -4409,7 +4445,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:2">
       <c r="A28" t="s">
         <v>26</v>
       </c>
@@ -4417,7 +4453,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:2">
       <c r="A29" t="s">
         <v>27</v>
       </c>
@@ -4425,7 +4461,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:2">
       <c r="A30" t="s">
         <v>28</v>
       </c>
@@ -4433,7 +4469,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:2">
       <c r="A31" t="s">
         <v>29</v>
       </c>
@@ -4441,7 +4477,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:2">
       <c r="A32" t="s">
         <v>30</v>
       </c>
@@ -4449,7 +4485,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:2">
       <c r="A33" t="s">
         <v>31</v>
       </c>
@@ -4457,7 +4493,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:2">
       <c r="A34" t="s">
         <v>32</v>
       </c>
@@ -4465,7 +4501,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:2">
       <c r="A35" t="s">
         <v>33</v>
       </c>
@@ -4473,7 +4509,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:2">
       <c r="A36" t="s">
         <v>34</v>
       </c>
@@ -4481,7 +4517,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:2">
       <c r="A37" t="s">
         <v>35</v>
       </c>
@@ -4489,7 +4525,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:2">
       <c r="A38" t="s">
         <v>36</v>
       </c>
@@ -4497,7 +4533,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:2">
       <c r="A39" t="s">
         <v>37</v>
       </c>
@@ -4505,7 +4541,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:2">
       <c r="A40" t="s">
         <v>38</v>
       </c>
@@ -4513,7 +4549,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:2">
       <c r="A41" t="s">
         <v>39</v>
       </c>
@@ -4521,7 +4557,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:2">
       <c r="A42" t="s">
         <v>40</v>
       </c>
@@ -4529,7 +4565,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:2">
       <c r="A43" t="s">
         <v>41</v>
       </c>
@@ -4537,7 +4573,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:2">
       <c r="A44" t="s">
         <v>42</v>
       </c>
@@ -4545,7 +4581,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:2">
       <c r="A45" t="s">
         <v>43</v>
       </c>
@@ -4553,7 +4589,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:2">
       <c r="A46" t="s">
         <v>44</v>
       </c>
@@ -4561,7 +4597,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:2">
       <c r="A47" t="s">
         <v>45</v>
       </c>
@@ -4569,7 +4605,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:2">
       <c r="A48" t="s">
         <v>46</v>
       </c>
@@ -4577,7 +4613,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:2">
       <c r="A49" t="s">
         <v>47</v>
       </c>
@@ -4585,7 +4621,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:2">
       <c r="A50" t="s">
         <v>48</v>
       </c>
@@ -4593,7 +4629,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:2">
       <c r="A51" t="s">
         <v>49</v>
       </c>
@@ -4601,7 +4637,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:2">
       <c r="A52" t="s">
         <v>50</v>
       </c>
@@ -4609,7 +4645,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:2">
       <c r="A53" t="s">
         <v>51</v>
       </c>
@@ -4617,7 +4653,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:2">
       <c r="A54" t="s">
         <v>52</v>
       </c>
@@ -4625,7 +4661,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:2">
       <c r="A55" t="s">
         <v>53</v>
       </c>
@@ -4633,7 +4669,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:2">
       <c r="A56" t="s">
         <v>54</v>
       </c>
@@ -4641,7 +4677,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:2">
       <c r="A57" t="s">
         <v>55</v>
       </c>
@@ -4649,7 +4685,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:2">
       <c r="A58" t="s">
         <v>56</v>
       </c>
@@ -4657,7 +4693,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:2">
       <c r="A59" t="s">
         <v>57</v>
       </c>
@@ -4665,7 +4701,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:2">
       <c r="A60" t="s">
         <v>58</v>
       </c>
@@ -4673,7 +4709,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:2">
       <c r="A61" t="s">
         <v>59</v>
       </c>
@@ -4681,7 +4717,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:2">
       <c r="A62" t="s">
         <v>60</v>
       </c>
@@ -4689,7 +4725,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:2">
       <c r="A63" t="s">
         <v>61</v>
       </c>
@@ -4697,7 +4733,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:2">
       <c r="A64" t="s">
         <v>62</v>
       </c>
@@ -4705,7 +4741,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:2">
       <c r="A65" t="s">
         <v>63</v>
       </c>
@@ -4713,7 +4749,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:2">
       <c r="A66" t="s">
         <v>64</v>
       </c>
@@ -4721,7 +4757,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:2">
       <c r="A67" t="s">
         <v>65</v>
       </c>
@@ -4729,7 +4765,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:2">
       <c r="A68" t="s">
         <v>66</v>
       </c>
@@ -4737,7 +4773,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:2">
       <c r="A69" t="s">
         <v>67</v>
       </c>
@@ -4745,7 +4781,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:2">
       <c r="A70" t="s">
         <v>68</v>
       </c>
@@ -4753,7 +4789,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:2">
       <c r="A71" t="s">
         <v>69</v>
       </c>
@@ -4761,7 +4797,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:2">
       <c r="A72" t="s">
         <v>70</v>
       </c>
@@ -4769,7 +4805,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:2">
       <c r="A73" t="s">
         <v>71</v>
       </c>
@@ -4777,7 +4813,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:2">
       <c r="A74" t="s">
         <v>72</v>
       </c>
@@ -4785,7 +4821,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:2">
       <c r="A75" t="s">
         <v>73</v>
       </c>
@@ -4793,7 +4829,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:2">
       <c r="A76" t="s">
         <v>74</v>
       </c>
@@ -4801,7 +4837,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:2">
       <c r="A77" t="s">
         <v>75</v>
       </c>
@@ -4809,7 +4845,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:2">
       <c r="A78" t="s">
         <v>76</v>
       </c>
@@ -4817,7 +4853,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:2">
       <c r="A79" t="s">
         <v>77</v>
       </c>
@@ -4825,7 +4861,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:2">
       <c r="A80" t="s">
         <v>78</v>
       </c>
@@ -4833,7 +4869,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:2">
       <c r="A81" t="s">
         <v>79</v>
       </c>
@@ -4841,7 +4877,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:2">
       <c r="A82" t="s">
         <v>80</v>
       </c>
@@ -4849,7 +4885,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:2">
       <c r="A83" t="s">
         <v>81</v>
       </c>
@@ -4857,7 +4893,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:2">
       <c r="A84" t="s">
         <v>82</v>
       </c>
@@ -4865,7 +4901,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:2">
       <c r="A85" t="s">
         <v>83</v>
       </c>
@@ -4873,7 +4909,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:2">
       <c r="A86" t="s">
         <v>84</v>
       </c>
@@ -4881,7 +4917,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:2">
       <c r="A87" t="s">
         <v>85</v>
       </c>
@@ -4889,7 +4925,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:2">
       <c r="A88" t="s">
         <v>86</v>
       </c>
@@ -4897,7 +4933,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:2">
       <c r="A89" t="s">
         <v>87</v>
       </c>
@@ -4905,7 +4941,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:2">
       <c r="A90" t="s">
         <v>88</v>
       </c>
@@ -4913,7 +4949,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:2">
       <c r="A91" t="s">
         <v>89</v>
       </c>
@@ -4921,7 +4957,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:2">
       <c r="A92" t="s">
         <v>90</v>
       </c>
@@ -4929,7 +4965,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:2">
       <c r="A93" t="s">
         <v>91</v>
       </c>
@@ -4937,7 +4973,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:2">
       <c r="A94" t="s">
         <v>92</v>
       </c>
@@ -4945,7 +4981,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:2">
       <c r="A95" t="s">
         <v>93</v>
       </c>
@@ -4953,7 +4989,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:2">
       <c r="A96" t="s">
         <v>94</v>
       </c>
@@ -4961,7 +4997,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:2">
       <c r="A97" t="s">
         <v>95</v>
       </c>
@@ -4969,7 +5005,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:2">
       <c r="A98" t="s">
         <v>96</v>
       </c>
@@ -4977,7 +5013,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:2">
       <c r="A99" t="s">
         <v>97</v>
       </c>
@@ -4985,7 +5021,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:2">
       <c r="A100" t="s">
         <v>98</v>
       </c>
@@ -4993,7 +5029,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:2">
       <c r="A101" t="s">
         <v>99</v>
       </c>
@@ -5001,7 +5037,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:2">
       <c r="A102" t="s">
         <v>100</v>
       </c>
@@ -5009,7 +5045,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:2">
       <c r="A103" t="s">
         <v>101</v>
       </c>
@@ -5017,7 +5053,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:2">
       <c r="A104" t="s">
         <v>102</v>
       </c>
@@ -5025,7 +5061,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:2">
       <c r="A105" t="s">
         <v>103</v>
       </c>
@@ -5033,7 +5069,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:2">
       <c r="A106" t="s">
         <v>104</v>
       </c>
@@ -5041,7 +5077,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:2">
       <c r="A107" t="s">
         <v>105</v>
       </c>
@@ -5049,7 +5085,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:2">
       <c r="A108" t="s">
         <v>106</v>
       </c>
@@ -5057,7 +5093,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:2">
       <c r="A109" t="s">
         <v>107</v>
       </c>
@@ -5065,7 +5101,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:2">
       <c r="A110" t="s">
         <v>108</v>
       </c>
@@ -5073,7 +5109,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:2">
       <c r="A111" t="s">
         <v>109</v>
       </c>
@@ -5081,7 +5117,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:2">
       <c r="A112" t="s">
         <v>110</v>
       </c>
@@ -5089,7 +5125,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:2">
       <c r="A113" t="s">
         <v>111</v>
       </c>
@@ -5097,7 +5133,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:2">
       <c r="A114" t="s">
         <v>112</v>
       </c>
@@ -5105,7 +5141,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:2">
       <c r="A115" t="s">
         <v>113</v>
       </c>
@@ -5113,7 +5149,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:2">
       <c r="A116" t="s">
         <v>114</v>
       </c>
@@ -5121,7 +5157,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:2">
       <c r="A117" t="s">
         <v>115</v>
       </c>
@@ -5129,7 +5165,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:2">
       <c r="A118" t="s">
         <v>116</v>
       </c>
@@ -5137,7 +5173,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:2">
       <c r="A119" t="s">
         <v>117</v>
       </c>
@@ -5145,7 +5181,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:2">
       <c r="A120" t="s">
         <v>118</v>
       </c>
@@ -5153,7 +5189,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:2">
       <c r="A121" t="s">
         <v>119</v>
       </c>
@@ -5161,7 +5197,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:2">
       <c r="A122" t="s">
         <v>120</v>
       </c>
@@ -5169,7 +5205,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:2">
       <c r="A123" t="s">
         <v>121</v>
       </c>
@@ -5177,7 +5213,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:2">
       <c r="A124" t="s">
         <v>122</v>
       </c>
@@ -5185,7 +5221,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:2">
       <c r="A125" t="s">
         <v>123</v>
       </c>
@@ -5193,7 +5229,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:2">
       <c r="A126" t="s">
         <v>124</v>
       </c>
@@ -5201,7 +5237,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:2">
       <c r="A127" t="s">
         <v>125</v>
       </c>
@@ -5209,7 +5245,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:2">
       <c r="A128" t="s">
         <v>126</v>
       </c>
@@ -5217,7 +5253,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:2">
       <c r="A129" t="s">
         <v>127</v>
       </c>
@@ -5225,7 +5261,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:2">
       <c r="A130" t="s">
         <v>128</v>
       </c>
@@ -5233,7 +5269,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:2">
       <c r="A131" t="s">
         <v>129</v>
       </c>
@@ -5241,7 +5277,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:2">
       <c r="A132" t="s">
         <v>130</v>
       </c>
@@ -5249,7 +5285,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:2">
       <c r="A133" t="s">
         <v>131</v>
       </c>
@@ -5257,7 +5293,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:2">
       <c r="A134" t="s">
         <v>132</v>
       </c>
@@ -5265,7 +5301,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:2">
       <c r="A135" t="s">
         <v>133</v>
       </c>
@@ -5273,7 +5309,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:2">
       <c r="A136" t="s">
         <v>134</v>
       </c>
@@ -5281,7 +5317,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:2">
       <c r="A137" t="s">
         <v>135</v>
       </c>
@@ -5289,7 +5325,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:2">
       <c r="A138" t="s">
         <v>136</v>
       </c>
@@ -5297,7 +5333,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:2">
       <c r="A139" t="s">
         <v>137</v>
       </c>
@@ -5305,7 +5341,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:2">
       <c r="A140" t="s">
         <v>138</v>
       </c>
@@ -5313,7 +5349,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:2">
       <c r="A141" t="s">
         <v>139</v>
       </c>
@@ -5321,7 +5357,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:2">
       <c r="A142" t="s">
         <v>140</v>
       </c>
@@ -5329,7 +5365,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:2">
       <c r="A143" t="s">
         <v>141</v>
       </c>
@@ -5337,7 +5373,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:2">
       <c r="A144" t="s">
         <v>142</v>
       </c>
@@ -5345,7 +5381,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:2">
       <c r="A145" t="s">
         <v>143</v>
       </c>
@@ -5353,7 +5389,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:2">
       <c r="A146" t="s">
         <v>144</v>
       </c>
@@ -5361,7 +5397,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:2">
       <c r="A147" t="s">
         <v>145</v>
       </c>
@@ -5369,7 +5405,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:2">
       <c r="A148" t="s">
         <v>146</v>
       </c>
@@ -5377,7 +5413,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:2">
       <c r="A149" t="s">
         <v>147</v>
       </c>
@@ -5385,7 +5421,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:2">
       <c r="A150" t="s">
         <v>148</v>
       </c>
@@ -5393,7 +5429,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:2">
       <c r="A151" t="s">
         <v>149</v>
       </c>
@@ -5401,7 +5437,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:2">
       <c r="A152" t="s">
         <v>150</v>
       </c>
@@ -5409,7 +5445,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:2">
       <c r="A153" t="s">
         <v>151</v>
       </c>
@@ -5417,7 +5453,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:2">
       <c r="A154" t="s">
         <v>152</v>
       </c>
@@ -5425,7 +5461,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:2">
       <c r="A155" t="s">
         <v>153</v>
       </c>
@@ -5433,7 +5469,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:2">
       <c r="A156" t="s">
         <v>154</v>
       </c>
@@ -5441,7 +5477,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:2">
       <c r="A157" t="s">
         <v>155</v>
       </c>
@@ -5449,7 +5485,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:2">
       <c r="A158" t="s">
         <v>156</v>
       </c>
@@ -5457,7 +5493,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:2">
       <c r="A159" t="s">
         <v>157</v>
       </c>
@@ -5465,7 +5501,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:2">
       <c r="A160" t="s">
         <v>158</v>
       </c>
@@ -5473,7 +5509,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="161" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:8">
       <c r="A161" t="s">
         <v>159</v>
       </c>
@@ -5481,7 +5517,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="162" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:8">
       <c r="A162" t="s">
         <v>160</v>
       </c>
@@ -5489,7 +5525,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="163" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:8">
       <c r="A163" t="s">
         <v>161</v>
       </c>
@@ -5497,7 +5533,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="164" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:8">
       <c r="A164" t="s">
         <v>162</v>
       </c>
@@ -5505,7 +5541,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="165" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:8">
       <c r="A165" t="s">
         <v>163</v>
       </c>
@@ -5513,7 +5549,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="166" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:8">
       <c r="A166" t="s">
         <v>164</v>
       </c>
@@ -5521,7 +5557,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="167" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:8">
       <c r="A167" t="s">
         <v>165</v>
       </c>
@@ -5529,7 +5565,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="168" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:8">
       <c r="A168" t="s">
         <v>166</v>
       </c>
@@ -5537,7 +5573,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="169" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:8">
       <c r="A169" t="s">
         <v>167</v>
       </c>
@@ -5545,7 +5581,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="170" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:8">
       <c r="A170" t="s">
         <v>168</v>
       </c>
@@ -5553,7 +5589,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="171" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:8">
       <c r="A171" t="s">
         <v>169</v>
       </c>
@@ -5561,7 +5597,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="174" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:8">
       <c r="A174" t="s">
         <v>170</v>
       </c>
@@ -5584,7 +5620,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="175" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:8" s="13" customFormat="1">
       <c r="A175" s="13" t="s">
         <v>1060</v>
       </c>
@@ -5611,7 +5647,7 @@
         <v>1089</v>
       </c>
     </row>
-    <row r="176" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:8" s="13" customFormat="1">
       <c r="A176" s="13" t="s">
         <v>1061</v>
       </c>
@@ -5638,7 +5674,7 @@
         <v>1092</v>
       </c>
     </row>
-    <row r="177" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:8" s="2" customFormat="1">
       <c r="A177" s="2" t="s">
         <v>1127</v>
       </c>
@@ -5665,7 +5701,7 @@
         <v>1092</v>
       </c>
     </row>
-    <row r="178" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:8" s="2" customFormat="1">
       <c r="A178" s="2" t="s">
         <v>1062</v>
       </c>
@@ -5692,7 +5728,7 @@
         <v>1092</v>
       </c>
     </row>
-    <row r="179" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:8" s="13" customFormat="1">
       <c r="A179" s="13" t="s">
         <v>1063</v>
       </c>
@@ -5719,7 +5755,7 @@
         <v>1095</v>
       </c>
     </row>
-    <row r="180" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:8" s="13" customFormat="1">
       <c r="A180" s="13" t="s">
         <v>1064</v>
       </c>
@@ -5746,7 +5782,7 @@
         <v>1095</v>
       </c>
     </row>
-    <row r="181" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:8" s="13" customFormat="1">
       <c r="A181" s="13" t="s">
         <v>1065</v>
       </c>
@@ -5773,7 +5809,7 @@
         <v>1098</v>
       </c>
     </row>
-    <row r="182" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:8" s="13" customFormat="1">
       <c r="A182" s="13" t="s">
         <v>1066</v>
       </c>
@@ -5800,7 +5836,7 @@
         <v>1100</v>
       </c>
     </row>
-    <row r="183" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:8" s="13" customFormat="1">
       <c r="A183" s="13" t="s">
         <v>1067</v>
       </c>
@@ -5827,7 +5863,7 @@
         <v>1103</v>
       </c>
     </row>
-    <row r="184" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:8" s="13" customFormat="1">
       <c r="A184" s="13" t="s">
         <v>1068</v>
       </c>
@@ -5854,7 +5890,7 @@
         <v>1103</v>
       </c>
     </row>
-    <row r="185" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:8" s="13" customFormat="1">
       <c r="A185" s="13" t="s">
         <v>1069</v>
       </c>
@@ -5881,7 +5917,7 @@
         <v>1106</v>
       </c>
     </row>
-    <row r="186" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:8" s="13" customFormat="1">
       <c r="A186" s="13" t="s">
         <v>1070</v>
       </c>
@@ -5908,7 +5944,7 @@
         <v>1106</v>
       </c>
     </row>
-    <row r="187" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:8" s="13" customFormat="1">
       <c r="A187" s="13" t="s">
         <v>1071</v>
       </c>
@@ -5935,7 +5971,7 @@
         <v>1109</v>
       </c>
     </row>
-    <row r="188" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:8" s="13" customFormat="1">
       <c r="A188" s="13" t="s">
         <v>1072</v>
       </c>
@@ -5962,7 +5998,7 @@
         <v>1109</v>
       </c>
     </row>
-    <row r="189" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:8" s="13" customFormat="1">
       <c r="A189" s="13" t="s">
         <v>1073</v>
       </c>
@@ -5989,7 +6025,7 @@
         <v>1112</v>
       </c>
     </row>
-    <row r="190" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:8" s="13" customFormat="1">
       <c r="A190" s="13" t="s">
         <v>1074</v>
       </c>
@@ -6016,7 +6052,7 @@
         <v>1115</v>
       </c>
     </row>
-    <row r="191" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:8" s="13" customFormat="1">
       <c r="A191" s="13" t="s">
         <v>1075</v>
       </c>
@@ -6043,7 +6079,7 @@
         <v>1116</v>
       </c>
     </row>
-    <row r="192" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:8" s="13" customFormat="1">
       <c r="A192" s="13" t="s">
         <v>1076</v>
       </c>
@@ -6070,7 +6106,7 @@
         <v>1116</v>
       </c>
     </row>
-    <row r="193" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:8" s="13" customFormat="1">
       <c r="A193" s="13" t="s">
         <v>1077</v>
       </c>
@@ -6097,7 +6133,7 @@
         <v>1116</v>
       </c>
     </row>
-    <row r="194" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:8" s="13" customFormat="1">
       <c r="A194" s="13" t="s">
         <v>1078</v>
       </c>
@@ -6124,7 +6160,7 @@
         <v>1119</v>
       </c>
     </row>
-    <row r="195" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:8" s="13" customFormat="1">
       <c r="A195" s="13" t="s">
         <v>1079</v>
       </c>
@@ -6151,7 +6187,7 @@
         <v>1119</v>
       </c>
     </row>
-    <row r="196" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:8" s="13" customFormat="1">
       <c r="A196" s="13" t="s">
         <v>1080</v>
       </c>
@@ -6178,7 +6214,7 @@
         <v>1119</v>
       </c>
     </row>
-    <row r="197" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:8" s="13" customFormat="1">
       <c r="A197" s="13" t="s">
         <v>1081</v>
       </c>
@@ -6205,7 +6241,7 @@
         <v>1122</v>
       </c>
     </row>
-    <row r="198" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:8" s="13" customFormat="1">
       <c r="A198" s="13" t="s">
         <v>1082</v>
       </c>
@@ -6232,7 +6268,7 @@
         <v>1125</v>
       </c>
     </row>
-    <row r="199" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:8" s="13" customFormat="1">
       <c r="A199" s="13" t="s">
         <v>1083</v>
       </c>
@@ -6259,7 +6295,7 @@
         <v>1125</v>
       </c>
     </row>
-    <row r="200" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:8" s="13" customFormat="1">
       <c r="A200" s="13" t="s">
         <v>1084</v>
       </c>
@@ -6286,7 +6322,7 @@
         <v>1125</v>
       </c>
     </row>
-    <row r="201" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:8" s="13" customFormat="1">
       <c r="A201" s="13" t="s">
         <v>1085</v>
       </c>
@@ -6313,7 +6349,7 @@
         <v>1126</v>
       </c>
     </row>
-    <row r="202" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:8" s="13" customFormat="1">
       <c r="A202" s="13" t="s">
         <v>1086</v>
       </c>
@@ -6355,13 +6391,13 @@
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="31.125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="31.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5">
       <c r="A3" s="15" t="s">
         <v>1146</v>
       </c>
@@ -6379,7 +6415,7 @@
         <v>TE230009361Ab17052250mg</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5">
       <c r="A4" s="15" t="s">
         <v>1129</v>
       </c>
@@ -6397,7 +6433,7 @@
         <v>TE230009362Ab17065850mg</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5">
       <c r="A5" s="15" t="s">
         <v>1136</v>
       </c>
@@ -6415,7 +6451,7 @@
         <v>TE230009363Ab17067350mg</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5">
       <c r="A6" s="15" t="s">
         <v>1130</v>
       </c>
@@ -6433,7 +6469,7 @@
         <v>TE230009364Ab17070250mg</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5">
       <c r="A7" s="15" t="s">
         <v>1131</v>
       </c>
@@ -6451,7 +6487,7 @@
         <v>TE230009365Ab17070550mg</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5">
       <c r="A8" s="15" t="s">
         <v>1132</v>
       </c>
@@ -6469,7 +6505,7 @@
         <v>TE230009366Ab17058050mg</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5">
       <c r="A9" s="15" t="s">
         <v>1133</v>
       </c>
@@ -6487,7 +6523,7 @@
         <v>TE230009367Ab17056750mg</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5">
       <c r="A10" s="15" t="s">
         <v>1134</v>
       </c>
@@ -6505,7 +6541,7 @@
         <v>TE230009368Ab17055450mg</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5">
       <c r="A11" s="15" t="s">
         <v>1135</v>
       </c>
@@ -6535,36 +6571,37 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:AJ341"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Q1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A223" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AE246" sqref="AE246"/>
+    <sheetView tabSelected="1" topLeftCell="L1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="Y2" sqref="Y2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.1640625" bestFit="1" customWidth="1"/>
     <col min="3" max="5" width="9" customWidth="1"/>
-    <col min="6" max="6" width="7.375" customWidth="1"/>
-    <col min="7" max="7" width="10.75" customWidth="1"/>
-    <col min="8" max="8" width="8.625" customWidth="1"/>
-    <col min="9" max="9" width="13.125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.625" customWidth="1"/>
-    <col min="11" max="11" width="16.125" customWidth="1"/>
-    <col min="12" max="12" width="17.625" customWidth="1"/>
-    <col min="13" max="13" width="16.625" customWidth="1"/>
+    <col min="6" max="6" width="7.33203125" customWidth="1"/>
+    <col min="7" max="7" width="10.6640625" customWidth="1"/>
+    <col min="8" max="8" width="8.6640625" customWidth="1"/>
+    <col min="9" max="9" width="13.1640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.6640625" customWidth="1"/>
+    <col min="11" max="11" width="16.1640625" customWidth="1"/>
+    <col min="12" max="12" width="17.6640625" customWidth="1"/>
+    <col min="13" max="13" width="16.6640625" customWidth="1"/>
     <col min="14" max="14" width="13" customWidth="1"/>
     <col min="15" max="15" width="14.5" customWidth="1"/>
     <col min="16" max="16" width="9" customWidth="1"/>
-    <col min="24" max="28" width="0" hidden="1" customWidth="1"/>
-    <col min="30" max="30" width="19.375" customWidth="1"/>
-    <col min="31" max="31" width="21.375" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="12.375" customWidth="1"/>
-    <col min="33" max="33" width="8.875" customWidth="1"/>
+    <col min="24" max="24" width="17" customWidth="1"/>
+    <col min="25" max="28" width="8.83203125" customWidth="1"/>
+    <col min="30" max="30" width="19.33203125" customWidth="1"/>
+    <col min="31" max="31" width="21.33203125" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="12.33203125" customWidth="1"/>
+    <col min="33" max="33" width="8.83203125" customWidth="1"/>
     <col min="35" max="35" width="11" bestFit="1" customWidth="1"/>
     <col min="36" max="36" width="18.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:36">
       <c r="A1" t="s">
         <v>170</v>
       </c>
@@ -6635,19 +6672,19 @@
         <v>192</v>
       </c>
       <c r="X1" s="8" t="s">
-        <v>193</v>
+        <v>1157</v>
       </c>
       <c r="Y1" s="8" t="s">
-        <v>194</v>
+        <v>1159</v>
       </c>
       <c r="Z1" s="8" t="s">
-        <v>195</v>
+        <v>1160</v>
       </c>
       <c r="AA1" s="8" t="s">
-        <v>196</v>
+        <v>1161</v>
       </c>
       <c r="AB1" s="8" t="s">
-        <v>197</v>
+        <v>1162</v>
       </c>
       <c r="AC1" s="10" t="s">
         <v>198</v>
@@ -6674,7 +6711,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="2" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:36">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -6745,16 +6782,16 @@
         <v>978</v>
       </c>
       <c r="X2" s="12" t="s">
-        <v>623</v>
+        <v>1158</v>
       </c>
       <c r="Y2" s="12" t="s">
-        <v>624</v>
+        <v>1165</v>
       </c>
       <c r="Z2" s="12" t="s">
-        <v>625</v>
+        <v>1164</v>
       </c>
       <c r="AA2" s="12" t="s">
-        <v>626</v>
+        <v>1163</v>
       </c>
       <c r="AB2">
         <v>1</v>
@@ -6784,7 +6821,7 @@
         <v>881</v>
       </c>
     </row>
-    <row r="3" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:36">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -6894,7 +6931,7 @@
         <v>882</v>
       </c>
     </row>
-    <row r="4" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:36">
       <c r="A4" s="13" t="s">
         <v>2</v>
       </c>
@@ -7004,7 +7041,7 @@
         <v>883</v>
       </c>
     </row>
-    <row r="5" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:36">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -7114,7 +7151,7 @@
         <v>884</v>
       </c>
     </row>
-    <row r="6" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:36">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -7224,7 +7261,7 @@
         <v>884</v>
       </c>
     </row>
-    <row r="7" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:36">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -7334,7 +7371,7 @@
         <v>885</v>
       </c>
     </row>
-    <row r="8" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:36">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -7444,7 +7481,7 @@
         <v>886</v>
       </c>
     </row>
-    <row r="9" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:36">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -7554,7 +7591,7 @@
         <v>886</v>
       </c>
     </row>
-    <row r="10" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:36">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -7664,7 +7701,7 @@
         <v>887</v>
       </c>
     </row>
-    <row r="11" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:36">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -7774,7 +7811,7 @@
         <v>888</v>
       </c>
     </row>
-    <row r="12" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:36">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -7884,7 +7921,7 @@
         <v>889</v>
       </c>
     </row>
-    <row r="13" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:36">
       <c r="A13" t="s">
         <v>11</v>
       </c>
@@ -7994,7 +8031,7 @@
         <v>889</v>
       </c>
     </row>
-    <row r="14" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:36">
       <c r="A14" t="s">
         <v>12</v>
       </c>
@@ -8104,7 +8141,7 @@
         <v>890</v>
       </c>
     </row>
-    <row r="15" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:36">
       <c r="A15" t="s">
         <v>13</v>
       </c>
@@ -8214,7 +8251,7 @@
         <v>891</v>
       </c>
     </row>
-    <row r="16" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:36">
       <c r="A16" t="s">
         <v>14</v>
       </c>
@@ -8324,7 +8361,7 @@
         <v>892</v>
       </c>
     </row>
-    <row r="17" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:36">
       <c r="A17" t="s">
         <v>15</v>
       </c>
@@ -8434,7 +8471,7 @@
         <v>893</v>
       </c>
     </row>
-    <row r="18" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:36">
       <c r="A18" t="s">
         <v>16</v>
       </c>
@@ -8544,7 +8581,7 @@
         <v>894</v>
       </c>
     </row>
-    <row r="19" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:36">
       <c r="A19" t="s">
         <v>17</v>
       </c>
@@ -8654,7 +8691,7 @@
         <v>895</v>
       </c>
     </row>
-    <row r="20" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:36">
       <c r="A20" t="s">
         <v>18</v>
       </c>
@@ -8764,7 +8801,7 @@
         <v>896</v>
       </c>
     </row>
-    <row r="21" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:36">
       <c r="A21" t="s">
         <v>19</v>
       </c>
@@ -8874,7 +8911,7 @@
         <v>896</v>
       </c>
     </row>
-    <row r="22" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:36">
       <c r="A22" s="13" t="s">
         <v>20</v>
       </c>
@@ -8984,7 +9021,7 @@
         <v>897</v>
       </c>
     </row>
-    <row r="23" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:36">
       <c r="A23" t="s">
         <v>21</v>
       </c>
@@ -9094,7 +9131,7 @@
         <v>898</v>
       </c>
     </row>
-    <row r="24" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:36">
       <c r="A24" t="s">
         <v>22</v>
       </c>
@@ -9204,7 +9241,7 @@
         <v>898</v>
       </c>
     </row>
-    <row r="25" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:36">
       <c r="A25" t="s">
         <v>23</v>
       </c>
@@ -9314,7 +9351,7 @@
         <v>898</v>
       </c>
     </row>
-    <row r="26" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:36">
       <c r="A26" t="s">
         <v>24</v>
       </c>
@@ -9424,7 +9461,7 @@
         <v>899</v>
       </c>
     </row>
-    <row r="27" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:36">
       <c r="A27" t="s">
         <v>25</v>
       </c>
@@ -9534,7 +9571,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="28" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:36">
       <c r="A28" t="s">
         <v>26</v>
       </c>
@@ -9644,7 +9681,7 @@
         <v>901</v>
       </c>
     </row>
-    <row r="29" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:36">
       <c r="A29" t="s">
         <v>27</v>
       </c>
@@ -9754,7 +9791,7 @@
         <v>902</v>
       </c>
     </row>
-    <row r="30" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:36">
       <c r="A30" t="s">
         <v>28</v>
       </c>
@@ -9864,7 +9901,7 @@
         <v>903</v>
       </c>
     </row>
-    <row r="31" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:36">
       <c r="A31" t="s">
         <v>29</v>
       </c>
@@ -9974,7 +10011,7 @@
         <v>904</v>
       </c>
     </row>
-    <row r="32" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:36">
       <c r="A32" t="s">
         <v>30</v>
       </c>
@@ -10084,7 +10121,7 @@
         <v>904</v>
       </c>
     </row>
-    <row r="33" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:36">
       <c r="A33" t="s">
         <v>31</v>
       </c>
@@ -10194,7 +10231,7 @@
         <v>904</v>
       </c>
     </row>
-    <row r="34" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:36">
       <c r="A34" t="s">
         <v>32</v>
       </c>
@@ -10304,7 +10341,7 @@
         <v>905</v>
       </c>
     </row>
-    <row r="35" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:36">
       <c r="A35" t="s">
         <v>33</v>
       </c>
@@ -10414,7 +10451,7 @@
         <v>905</v>
       </c>
     </row>
-    <row r="36" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:36">
       <c r="A36" t="s">
         <v>34</v>
       </c>
@@ -10524,7 +10561,7 @@
         <v>905</v>
       </c>
     </row>
-    <row r="37" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:36">
       <c r="A37" t="s">
         <v>35</v>
       </c>
@@ -10634,7 +10671,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="38" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:36">
       <c r="A38" t="s">
         <v>36</v>
       </c>
@@ -10744,7 +10781,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="39" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:36">
       <c r="A39" t="s">
         <v>37</v>
       </c>
@@ -10854,7 +10891,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="40" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:36">
       <c r="A40" t="s">
         <v>38</v>
       </c>
@@ -10964,7 +11001,7 @@
         <v>908</v>
       </c>
     </row>
-    <row r="41" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:36">
       <c r="A41" t="s">
         <v>39</v>
       </c>
@@ -11074,7 +11111,7 @@
         <v>908</v>
       </c>
     </row>
-    <row r="42" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:36">
       <c r="A42" t="s">
         <v>40</v>
       </c>
@@ -11184,7 +11221,7 @@
         <v>908</v>
       </c>
     </row>
-    <row r="43" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:36">
       <c r="A43" t="s">
         <v>41</v>
       </c>
@@ -11294,7 +11331,7 @@
         <v>909</v>
       </c>
     </row>
-    <row r="44" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:36">
       <c r="A44" t="s">
         <v>42</v>
       </c>
@@ -11404,7 +11441,7 @@
         <v>909</v>
       </c>
     </row>
-    <row r="45" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:36">
       <c r="A45" t="s">
         <v>43</v>
       </c>
@@ -11514,7 +11551,7 @@
         <v>910</v>
       </c>
     </row>
-    <row r="46" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:36">
       <c r="A46" t="s">
         <v>44</v>
       </c>
@@ -11624,7 +11661,7 @@
         <v>910</v>
       </c>
     </row>
-    <row r="47" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:36">
       <c r="A47" t="s">
         <v>45</v>
       </c>
@@ -11734,7 +11771,7 @@
         <v>910</v>
       </c>
     </row>
-    <row r="48" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:36">
       <c r="A48" t="s">
         <v>46</v>
       </c>
@@ -11844,7 +11881,7 @@
         <v>910</v>
       </c>
     </row>
-    <row r="49" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:36">
       <c r="A49" t="s">
         <v>47</v>
       </c>
@@ -11954,7 +11991,7 @@
         <v>911</v>
       </c>
     </row>
-    <row r="50" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:36">
       <c r="A50" t="s">
         <v>48</v>
       </c>
@@ -12064,7 +12101,7 @@
         <v>911</v>
       </c>
     </row>
-    <row r="51" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:36">
       <c r="A51" t="s">
         <v>49</v>
       </c>
@@ -12174,7 +12211,7 @@
         <v>911</v>
       </c>
     </row>
-    <row r="52" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:36">
       <c r="A52" t="s">
         <v>50</v>
       </c>
@@ -12284,7 +12321,7 @@
         <v>912</v>
       </c>
     </row>
-    <row r="53" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:36">
       <c r="A53" t="s">
         <v>51</v>
       </c>
@@ -12394,7 +12431,7 @@
         <v>912</v>
       </c>
     </row>
-    <row r="54" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:36">
       <c r="A54" t="s">
         <v>52</v>
       </c>
@@ -12504,7 +12541,7 @@
         <v>912</v>
       </c>
     </row>
-    <row r="55" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:36">
       <c r="A55" t="s">
         <v>53</v>
       </c>
@@ -12614,7 +12651,7 @@
         <v>912</v>
       </c>
     </row>
-    <row r="56" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:36">
       <c r="A56" t="s">
         <v>54</v>
       </c>
@@ -12724,7 +12761,7 @@
         <v>913</v>
       </c>
     </row>
-    <row r="57" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:36">
       <c r="A57" t="s">
         <v>55</v>
       </c>
@@ -12834,7 +12871,7 @@
         <v>913</v>
       </c>
     </row>
-    <row r="58" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:36">
       <c r="A58" t="s">
         <v>56</v>
       </c>
@@ -12944,7 +12981,7 @@
         <v>913</v>
       </c>
     </row>
-    <row r="59" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:36">
       <c r="A59" t="s">
         <v>57</v>
       </c>
@@ -13054,7 +13091,7 @@
         <v>913</v>
       </c>
     </row>
-    <row r="60" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:36">
       <c r="A60" t="s">
         <v>58</v>
       </c>
@@ -13164,7 +13201,7 @@
         <v>914</v>
       </c>
     </row>
-    <row r="61" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:36">
       <c r="A61" t="s">
         <v>59</v>
       </c>
@@ -13274,7 +13311,7 @@
         <v>914</v>
       </c>
     </row>
-    <row r="62" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:36">
       <c r="A62" t="s">
         <v>60</v>
       </c>
@@ -13384,7 +13421,7 @@
         <v>914</v>
       </c>
     </row>
-    <row r="63" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:36">
       <c r="A63" t="s">
         <v>61</v>
       </c>
@@ -13494,7 +13531,7 @@
         <v>914</v>
       </c>
     </row>
-    <row r="64" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:36">
       <c r="A64" t="s">
         <v>62</v>
       </c>
@@ -13604,7 +13641,7 @@
         <v>914</v>
       </c>
     </row>
-    <row r="65" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:36">
       <c r="A65" t="s">
         <v>63</v>
       </c>
@@ -13714,7 +13751,7 @@
         <v>915</v>
       </c>
     </row>
-    <row r="66" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:36">
       <c r="A66" t="s">
         <v>64</v>
       </c>
@@ -13824,7 +13861,7 @@
         <v>916</v>
       </c>
     </row>
-    <row r="67" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:36">
       <c r="A67" t="s">
         <v>65</v>
       </c>
@@ -13934,7 +13971,7 @@
         <v>917</v>
       </c>
     </row>
-    <row r="68" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:36">
       <c r="A68" t="s">
         <v>66</v>
       </c>
@@ -14044,7 +14081,7 @@
         <v>917</v>
       </c>
     </row>
-    <row r="69" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:36">
       <c r="A69" t="s">
         <v>67</v>
       </c>
@@ -14154,7 +14191,7 @@
         <v>918</v>
       </c>
     </row>
-    <row r="70" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:36">
       <c r="A70" t="s">
         <v>68</v>
       </c>
@@ -14264,7 +14301,7 @@
         <v>919</v>
       </c>
     </row>
-    <row r="71" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:36">
       <c r="A71" t="s">
         <v>69</v>
       </c>
@@ -14374,7 +14411,7 @@
         <v>919</v>
       </c>
     </row>
-    <row r="72" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:36">
       <c r="A72" t="s">
         <v>70</v>
       </c>
@@ -14484,7 +14521,7 @@
         <v>919</v>
       </c>
     </row>
-    <row r="73" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:36">
       <c r="A73" t="s">
         <v>71</v>
       </c>
@@ -14594,7 +14631,7 @@
         <v>920</v>
       </c>
     </row>
-    <row r="74" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:36">
       <c r="A74" t="s">
         <v>72</v>
       </c>
@@ -14704,7 +14741,7 @@
         <v>920</v>
       </c>
     </row>
-    <row r="75" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:36">
       <c r="A75" t="s">
         <v>73</v>
       </c>
@@ -14814,7 +14851,7 @@
         <v>920</v>
       </c>
     </row>
-    <row r="76" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:36">
       <c r="A76" s="13" t="s">
         <v>74</v>
       </c>
@@ -14924,7 +14961,7 @@
         <v>921</v>
       </c>
     </row>
-    <row r="77" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:36">
       <c r="A77" s="13" t="s">
         <v>75</v>
       </c>
@@ -15034,7 +15071,7 @@
         <v>921</v>
       </c>
     </row>
-    <row r="78" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:36">
       <c r="A78" s="13" t="s">
         <v>76</v>
       </c>
@@ -15144,7 +15181,7 @@
         <v>921</v>
       </c>
     </row>
-    <row r="79" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:36">
       <c r="A79" t="s">
         <v>77</v>
       </c>
@@ -15254,7 +15291,7 @@
         <v>922</v>
       </c>
     </row>
-    <row r="80" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:36">
       <c r="A80" t="s">
         <v>78</v>
       </c>
@@ -15364,7 +15401,7 @@
         <v>922</v>
       </c>
     </row>
-    <row r="81" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:36">
       <c r="A81" t="s">
         <v>79</v>
       </c>
@@ -15474,7 +15511,7 @@
         <v>922</v>
       </c>
     </row>
-    <row r="82" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:36">
       <c r="A82" t="s">
         <v>80</v>
       </c>
@@ -15584,7 +15621,7 @@
         <v>922</v>
       </c>
     </row>
-    <row r="83" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:36">
       <c r="A83" t="s">
         <v>81</v>
       </c>
@@ -15694,7 +15731,7 @@
         <v>922</v>
       </c>
     </row>
-    <row r="84" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:36">
       <c r="A84" t="s">
         <v>82</v>
       </c>
@@ -15804,7 +15841,7 @@
         <v>923</v>
       </c>
     </row>
-    <row r="85" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:36">
       <c r="A85" t="s">
         <v>83</v>
       </c>
@@ -15914,7 +15951,7 @@
         <v>923</v>
       </c>
     </row>
-    <row r="86" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:36">
       <c r="A86" t="s">
         <v>84</v>
       </c>
@@ -16024,7 +16061,7 @@
         <v>924</v>
       </c>
     </row>
-    <row r="87" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:36">
       <c r="A87" t="s">
         <v>85</v>
       </c>
@@ -16134,7 +16171,7 @@
         <v>925</v>
       </c>
     </row>
-    <row r="88" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:36">
       <c r="A88" t="s">
         <v>86</v>
       </c>
@@ -16244,7 +16281,7 @@
         <v>926</v>
       </c>
     </row>
-    <row r="89" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:36">
       <c r="A89" t="s">
         <v>87</v>
       </c>
@@ -16354,7 +16391,7 @@
         <v>926</v>
       </c>
     </row>
-    <row r="90" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:36">
       <c r="A90" t="s">
         <v>88</v>
       </c>
@@ -16464,7 +16501,7 @@
         <v>926</v>
       </c>
     </row>
-    <row r="91" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:36">
       <c r="A91" t="s">
         <v>89</v>
       </c>
@@ -16574,7 +16611,7 @@
         <v>927</v>
       </c>
     </row>
-    <row r="92" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:36">
       <c r="A92" t="s">
         <v>90</v>
       </c>
@@ -16684,7 +16721,7 @@
         <v>927</v>
       </c>
     </row>
-    <row r="93" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:36">
       <c r="A93" t="s">
         <v>91</v>
       </c>
@@ -16794,7 +16831,7 @@
         <v>928</v>
       </c>
     </row>
-    <row r="94" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:36">
       <c r="A94" t="s">
         <v>92</v>
       </c>
@@ -16904,7 +16941,7 @@
         <v>928</v>
       </c>
     </row>
-    <row r="95" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:36">
       <c r="A95" t="s">
         <v>93</v>
       </c>
@@ -17014,7 +17051,7 @@
         <v>928</v>
       </c>
     </row>
-    <row r="96" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:36">
       <c r="A96" t="s">
         <v>94</v>
       </c>
@@ -17124,7 +17161,7 @@
         <v>929</v>
       </c>
     </row>
-    <row r="97" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:36">
       <c r="A97" t="s">
         <v>95</v>
       </c>
@@ -17234,7 +17271,7 @@
         <v>930</v>
       </c>
     </row>
-    <row r="98" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:36">
       <c r="A98" t="s">
         <v>96</v>
       </c>
@@ -17344,7 +17381,7 @@
         <v>930</v>
       </c>
     </row>
-    <row r="99" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:36">
       <c r="A99" t="s">
         <v>97</v>
       </c>
@@ -17454,7 +17491,7 @@
         <v>930</v>
       </c>
     </row>
-    <row r="100" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:36">
       <c r="A100" t="s">
         <v>98</v>
       </c>
@@ -17564,7 +17601,7 @@
         <v>931</v>
       </c>
     </row>
-    <row r="101" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:36">
       <c r="A101" t="s">
         <v>99</v>
       </c>
@@ -17674,7 +17711,7 @@
         <v>931</v>
       </c>
     </row>
-    <row r="102" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:36">
       <c r="A102" t="s">
         <v>100</v>
       </c>
@@ -17784,7 +17821,7 @@
         <v>931</v>
       </c>
     </row>
-    <row r="103" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:36">
       <c r="A103" t="s">
         <v>101</v>
       </c>
@@ -17894,7 +17931,7 @@
         <v>931</v>
       </c>
     </row>
-    <row r="104" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:36">
       <c r="A104" t="s">
         <v>102</v>
       </c>
@@ -18004,7 +18041,7 @@
         <v>932</v>
       </c>
     </row>
-    <row r="105" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:36">
       <c r="A105" t="s">
         <v>103</v>
       </c>
@@ -18114,7 +18151,7 @@
         <v>933</v>
       </c>
     </row>
-    <row r="106" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:36">
       <c r="A106" t="s">
         <v>104</v>
       </c>
@@ -18224,7 +18261,7 @@
         <v>934</v>
       </c>
     </row>
-    <row r="107" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:36">
       <c r="A107" t="s">
         <v>105</v>
       </c>
@@ -18334,7 +18371,7 @@
         <v>935</v>
       </c>
     </row>
-    <row r="108" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:36">
       <c r="A108" t="s">
         <v>106</v>
       </c>
@@ -18444,7 +18481,7 @@
         <v>936</v>
       </c>
     </row>
-    <row r="109" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:36">
       <c r="A109" t="s">
         <v>107</v>
       </c>
@@ -18554,7 +18591,7 @@
         <v>937</v>
       </c>
     </row>
-    <row r="110" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:36">
       <c r="A110" t="s">
         <v>108</v>
       </c>
@@ -18664,7 +18701,7 @@
         <v>937</v>
       </c>
     </row>
-    <row r="111" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:36">
       <c r="A111" s="13" t="s">
         <v>109</v>
       </c>
@@ -18774,7 +18811,7 @@
         <v>938</v>
       </c>
     </row>
-    <row r="112" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:36">
       <c r="A112" s="13" t="s">
         <v>110</v>
       </c>
@@ -18884,7 +18921,7 @@
         <v>938</v>
       </c>
     </row>
-    <row r="113" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:36">
       <c r="A113" s="13" t="s">
         <v>111</v>
       </c>
@@ -18994,7 +19031,7 @@
         <v>938</v>
       </c>
     </row>
-    <row r="114" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:36">
       <c r="A114" t="s">
         <v>112</v>
       </c>
@@ -19104,7 +19141,7 @@
         <v>939</v>
       </c>
     </row>
-    <row r="115" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:36">
       <c r="A115" t="s">
         <v>113</v>
       </c>
@@ -19214,7 +19251,7 @@
         <v>939</v>
       </c>
     </row>
-    <row r="116" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:36">
       <c r="A116" t="s">
         <v>114</v>
       </c>
@@ -19324,7 +19361,7 @@
         <v>939</v>
       </c>
     </row>
-    <row r="117" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:36">
       <c r="A117" t="s">
         <v>115</v>
       </c>
@@ -19434,7 +19471,7 @@
         <v>940</v>
       </c>
     </row>
-    <row r="118" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:36">
       <c r="A118" t="s">
         <v>116</v>
       </c>
@@ -19544,7 +19581,7 @@
         <v>940</v>
       </c>
     </row>
-    <row r="119" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:36">
       <c r="A119" t="s">
         <v>117</v>
       </c>
@@ -19654,7 +19691,7 @@
         <v>940</v>
       </c>
     </row>
-    <row r="120" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:36">
       <c r="A120" t="s">
         <v>118</v>
       </c>
@@ -19764,7 +19801,7 @@
         <v>941</v>
       </c>
     </row>
-    <row r="121" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:36">
       <c r="A121" t="s">
         <v>119</v>
       </c>
@@ -19874,7 +19911,7 @@
         <v>941</v>
       </c>
     </row>
-    <row r="122" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:36">
       <c r="A122" t="s">
         <v>120</v>
       </c>
@@ -19984,7 +20021,7 @@
         <v>941</v>
       </c>
     </row>
-    <row r="123" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:36">
       <c r="A123" t="s">
         <v>121</v>
       </c>
@@ -20094,7 +20131,7 @@
         <v>941</v>
       </c>
     </row>
-    <row r="124" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:36">
       <c r="A124" t="s">
         <v>122</v>
       </c>
@@ -20204,7 +20241,7 @@
         <v>942</v>
       </c>
     </row>
-    <row r="125" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:36">
       <c r="A125" t="s">
         <v>123</v>
       </c>
@@ -20314,7 +20351,7 @@
         <v>943</v>
       </c>
     </row>
-    <row r="126" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:36">
       <c r="A126" t="s">
         <v>124</v>
       </c>
@@ -20424,7 +20461,7 @@
         <v>944</v>
       </c>
     </row>
-    <row r="127" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:36">
       <c r="A127" s="13" t="s">
         <v>125</v>
       </c>
@@ -20534,7 +20571,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="128" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:36">
       <c r="A128" t="s">
         <v>126</v>
       </c>
@@ -20644,7 +20681,7 @@
         <v>946</v>
       </c>
     </row>
-    <row r="129" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:36">
       <c r="A129" t="s">
         <v>127</v>
       </c>
@@ -20754,7 +20791,7 @@
         <v>946</v>
       </c>
     </row>
-    <row r="130" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:36">
       <c r="A130" t="s">
         <v>128</v>
       </c>
@@ -20864,7 +20901,7 @@
         <v>947</v>
       </c>
     </row>
-    <row r="131" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:36">
       <c r="A131" t="s">
         <v>129</v>
       </c>
@@ -20974,7 +21011,7 @@
         <v>948</v>
       </c>
     </row>
-    <row r="132" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:36">
       <c r="A132" t="s">
         <v>130</v>
       </c>
@@ -21084,7 +21121,7 @@
         <v>949</v>
       </c>
     </row>
-    <row r="133" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:36">
       <c r="A133" t="s">
         <v>131</v>
       </c>
@@ -21194,7 +21231,7 @@
         <v>950</v>
       </c>
     </row>
-    <row r="134" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:36">
       <c r="A134" t="s">
         <v>132</v>
       </c>
@@ -21304,7 +21341,7 @@
         <v>950</v>
       </c>
     </row>
-    <row r="135" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:36">
       <c r="A135" t="s">
         <v>133</v>
       </c>
@@ -21414,7 +21451,7 @@
         <v>950</v>
       </c>
     </row>
-    <row r="136" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:36">
       <c r="A136" t="s">
         <v>134</v>
       </c>
@@ -21524,7 +21561,7 @@
         <v>950</v>
       </c>
     </row>
-    <row r="137" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:36">
       <c r="A137" t="s">
         <v>135</v>
       </c>
@@ -21634,7 +21671,7 @@
         <v>950</v>
       </c>
     </row>
-    <row r="138" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:36">
       <c r="A138" t="s">
         <v>136</v>
       </c>
@@ -21744,7 +21781,7 @@
         <v>951</v>
       </c>
     </row>
-    <row r="139" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:36">
       <c r="A139" t="s">
         <v>137</v>
       </c>
@@ -21854,7 +21891,7 @@
         <v>951</v>
       </c>
     </row>
-    <row r="140" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:36">
       <c r="A140" t="s">
         <v>138</v>
       </c>
@@ -21964,7 +22001,7 @@
         <v>951</v>
       </c>
     </row>
-    <row r="141" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:36">
       <c r="A141" s="13" t="s">
         <v>139</v>
       </c>
@@ -22074,7 +22111,7 @@
         <v>952</v>
       </c>
     </row>
-    <row r="142" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:36">
       <c r="A142" t="s">
         <v>140</v>
       </c>
@@ -22184,7 +22221,7 @@
         <v>953</v>
       </c>
     </row>
-    <row r="143" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:36">
       <c r="A143" t="s">
         <v>141</v>
       </c>
@@ -22294,7 +22331,7 @@
         <v>953</v>
       </c>
     </row>
-    <row r="144" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:36">
       <c r="A144" t="s">
         <v>142</v>
       </c>
@@ -22404,7 +22441,7 @@
         <v>953</v>
       </c>
     </row>
-    <row r="145" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:36">
       <c r="A145" t="s">
         <v>143</v>
       </c>
@@ -22514,7 +22551,7 @@
         <v>954</v>
       </c>
     </row>
-    <row r="146" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:36">
       <c r="A146" t="s">
         <v>144</v>
       </c>
@@ -22624,7 +22661,7 @@
         <v>954</v>
       </c>
     </row>
-    <row r="147" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:36">
       <c r="A147" t="s">
         <v>145</v>
       </c>
@@ -22734,7 +22771,7 @@
         <v>954</v>
       </c>
     </row>
-    <row r="148" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:36">
       <c r="A148" t="s">
         <v>146</v>
       </c>
@@ -22844,7 +22881,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="149" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:36">
       <c r="A149" t="s">
         <v>147</v>
       </c>
@@ -22954,7 +22991,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="150" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:36">
       <c r="A150" t="s">
         <v>148</v>
       </c>
@@ -23064,7 +23101,7 @@
         <v>956</v>
       </c>
     </row>
-    <row r="151" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:36">
       <c r="A151" t="s">
         <v>149</v>
       </c>
@@ -23174,7 +23211,7 @@
         <v>956</v>
       </c>
     </row>
-    <row r="152" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:36">
       <c r="A152" t="s">
         <v>150</v>
       </c>
@@ -23284,7 +23321,7 @@
         <v>956</v>
       </c>
     </row>
-    <row r="153" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:36">
       <c r="A153" t="s">
         <v>151</v>
       </c>
@@ -23394,7 +23431,7 @@
         <v>956</v>
       </c>
     </row>
-    <row r="154" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:36">
       <c r="A154" t="s">
         <v>152</v>
       </c>
@@ -23504,7 +23541,7 @@
         <v>957</v>
       </c>
     </row>
-    <row r="155" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:36">
       <c r="A155" t="s">
         <v>153</v>
       </c>
@@ -23614,7 +23651,7 @@
         <v>958</v>
       </c>
     </row>
-    <row r="156" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:36">
       <c r="A156" t="s">
         <v>154</v>
       </c>
@@ -23724,7 +23761,7 @@
         <v>958</v>
       </c>
     </row>
-    <row r="157" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:36">
       <c r="A157" t="s">
         <v>155</v>
       </c>
@@ -23834,7 +23871,7 @@
         <v>958</v>
       </c>
     </row>
-    <row r="158" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:36">
       <c r="A158" t="s">
         <v>156</v>
       </c>
@@ -23944,7 +23981,7 @@
         <v>958</v>
       </c>
     </row>
-    <row r="159" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:36">
       <c r="A159" t="s">
         <v>157</v>
       </c>
@@ -24054,7 +24091,7 @@
         <v>959</v>
       </c>
     </row>
-    <row r="160" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:36">
       <c r="A160" t="s">
         <v>158</v>
       </c>
@@ -24164,7 +24201,7 @@
         <v>960</v>
       </c>
     </row>
-    <row r="161" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:36">
       <c r="A161" t="s">
         <v>159</v>
       </c>
@@ -24274,7 +24311,7 @@
         <v>960</v>
       </c>
     </row>
-    <row r="162" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:36">
       <c r="A162" t="s">
         <v>160</v>
       </c>
@@ -24384,7 +24421,7 @@
         <v>961</v>
       </c>
     </row>
-    <row r="163" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:36">
       <c r="A163" t="s">
         <v>161</v>
       </c>
@@ -24494,7 +24531,7 @@
         <v>961</v>
       </c>
     </row>
-    <row r="164" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:36">
       <c r="A164" t="s">
         <v>162</v>
       </c>
@@ -24604,7 +24641,7 @@
         <v>961</v>
       </c>
     </row>
-    <row r="165" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:36">
       <c r="A165" t="s">
         <v>163</v>
       </c>
@@ -24714,7 +24751,7 @@
         <v>961</v>
       </c>
     </row>
-    <row r="166" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:36">
       <c r="A166" t="s">
         <v>164</v>
       </c>
@@ -24824,7 +24861,7 @@
         <v>961</v>
       </c>
     </row>
-    <row r="167" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:36">
       <c r="A167" t="s">
         <v>165</v>
       </c>
@@ -24934,7 +24971,7 @@
         <v>961</v>
       </c>
     </row>
-    <row r="168" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:36">
       <c r="A168" t="s">
         <v>166</v>
       </c>
@@ -25044,7 +25081,7 @@
         <v>962</v>
       </c>
     </row>
-    <row r="169" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:36">
       <c r="A169" t="s">
         <v>167</v>
       </c>
@@ -25154,7 +25191,7 @@
         <v>962</v>
       </c>
     </row>
-    <row r="170" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:36">
       <c r="A170" t="s">
         <v>168</v>
       </c>
@@ -25264,7 +25301,7 @@
         <v>962</v>
       </c>
     </row>
-    <row r="171" spans="1:36" hidden="1" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:36">
       <c r="A171" t="s">
         <v>169</v>
       </c>
@@ -25374,7 +25411,7 @@
         <v>962</v>
       </c>
     </row>
-    <row r="172" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:36" ht="16" hidden="1">
       <c r="A172" t="s">
         <v>0</v>
       </c>
@@ -25430,7 +25467,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="173" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:36" ht="16" hidden="1">
       <c r="A173" t="s">
         <v>1</v>
       </c>
@@ -25486,7 +25523,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="174" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:36" ht="16" hidden="1">
       <c r="A174" s="13" t="s">
         <v>2</v>
       </c>
@@ -25542,7 +25579,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="175" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:36" ht="16" hidden="1">
       <c r="A175" t="s">
         <v>3</v>
       </c>
@@ -25598,7 +25635,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="176" spans="1:36" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:36" ht="16" hidden="1">
       <c r="A176" t="s">
         <v>4</v>
       </c>
@@ -25654,7 +25691,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="177" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:33" ht="16" hidden="1">
       <c r="A177" t="s">
         <v>5</v>
       </c>
@@ -25710,7 +25747,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="178" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:33" ht="16" hidden="1">
       <c r="A178" t="s">
         <v>6</v>
       </c>
@@ -25766,7 +25803,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="179" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:33" ht="16" hidden="1">
       <c r="A179" t="s">
         <v>7</v>
       </c>
@@ -25822,7 +25859,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="180" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:33" ht="16" hidden="1">
       <c r="A180" t="s">
         <v>8</v>
       </c>
@@ -25878,7 +25915,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="181" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:33" ht="16" hidden="1">
       <c r="A181" t="s">
         <v>9</v>
       </c>
@@ -25934,7 +25971,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="182" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:33" ht="16" hidden="1">
       <c r="A182" t="s">
         <v>10</v>
       </c>
@@ -25990,7 +26027,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="183" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:33" ht="16" hidden="1">
       <c r="A183" t="s">
         <v>11</v>
       </c>
@@ -26046,7 +26083,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="184" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:33" ht="16" hidden="1">
       <c r="A184" t="s">
         <v>12</v>
       </c>
@@ -26102,7 +26139,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="185" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:33" ht="16" hidden="1">
       <c r="A185" t="s">
         <v>13</v>
       </c>
@@ -26158,7 +26195,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="186" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:33" ht="16" hidden="1">
       <c r="A186" t="s">
         <v>14</v>
       </c>
@@ -26214,7 +26251,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="187" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:33" ht="16" hidden="1">
       <c r="A187" t="s">
         <v>15</v>
       </c>
@@ -26270,7 +26307,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="188" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:33" ht="16" hidden="1">
       <c r="A188" t="s">
         <v>16</v>
       </c>
@@ -26326,7 +26363,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="189" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:33" ht="16" hidden="1">
       <c r="A189" t="s">
         <v>17</v>
       </c>
@@ -26382,7 +26419,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="190" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:33" ht="16" hidden="1">
       <c r="A190" t="s">
         <v>18</v>
       </c>
@@ -26438,7 +26475,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="191" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:33" ht="16" hidden="1">
       <c r="A191" t="s">
         <v>19</v>
       </c>
@@ -26494,7 +26531,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="192" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:33" ht="16" hidden="1">
       <c r="A192" s="13" t="s">
         <v>20</v>
       </c>
@@ -26550,7 +26587,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="193" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:33" ht="16" hidden="1">
       <c r="A193" t="s">
         <v>21</v>
       </c>
@@ -26606,7 +26643,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="194" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:33" ht="16" hidden="1">
       <c r="A194" t="s">
         <v>22</v>
       </c>
@@ -26662,7 +26699,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="195" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:33" ht="16" hidden="1">
       <c r="A195" t="s">
         <v>23</v>
       </c>
@@ -26718,7 +26755,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="196" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:33" ht="16" hidden="1">
       <c r="A196" t="s">
         <v>24</v>
       </c>
@@ -26774,7 +26811,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="197" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:33" ht="16" hidden="1">
       <c r="A197" t="s">
         <v>25</v>
       </c>
@@ -26830,7 +26867,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="198" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:33" hidden="1">
       <c r="A198" t="s">
         <v>26</v>
       </c>
@@ -26886,7 +26923,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="199" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:33" ht="16" hidden="1">
       <c r="A199" t="s">
         <v>27</v>
       </c>
@@ -26942,7 +26979,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="200" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:33" ht="16" hidden="1">
       <c r="A200" t="s">
         <v>28</v>
       </c>
@@ -26998,7 +27035,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="201" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:33" ht="16" hidden="1">
       <c r="A201" t="s">
         <v>29</v>
       </c>
@@ -27054,7 +27091,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="202" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:33" ht="16" hidden="1">
       <c r="A202" t="s">
         <v>30</v>
       </c>
@@ -27110,7 +27147,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="203" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:33" ht="16" hidden="1">
       <c r="A203" t="s">
         <v>31</v>
       </c>
@@ -27166,7 +27203,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="204" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:33" ht="16" hidden="1">
       <c r="A204" t="s">
         <v>32</v>
       </c>
@@ -27222,7 +27259,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="205" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:33" ht="16" hidden="1">
       <c r="A205" t="s">
         <v>33</v>
       </c>
@@ -27278,7 +27315,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="206" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:33" ht="16" hidden="1">
       <c r="A206" t="s">
         <v>34</v>
       </c>
@@ -27334,7 +27371,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="207" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:33" ht="16" hidden="1">
       <c r="A207" t="s">
         <v>35</v>
       </c>
@@ -27390,7 +27427,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="208" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:33" ht="16" hidden="1">
       <c r="A208" t="s">
         <v>36</v>
       </c>
@@ -27446,7 +27483,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="209" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:33" ht="16" hidden="1">
       <c r="A209" t="s">
         <v>37</v>
       </c>
@@ -27502,7 +27539,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="210" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:33" ht="16" hidden="1">
       <c r="A210" t="s">
         <v>38</v>
       </c>
@@ -27558,7 +27595,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="211" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:33" ht="16" hidden="1">
       <c r="A211" t="s">
         <v>39</v>
       </c>
@@ -27614,7 +27651,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="212" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:33" ht="16" hidden="1">
       <c r="A212" t="s">
         <v>40</v>
       </c>
@@ -27670,7 +27707,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="213" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:33" ht="16" hidden="1">
       <c r="A213" t="s">
         <v>41</v>
       </c>
@@ -27726,7 +27763,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="214" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:33" ht="16" hidden="1">
       <c r="A214" t="s">
         <v>42</v>
       </c>
@@ -27782,7 +27819,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="215" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:33" ht="16" hidden="1">
       <c r="A215" t="s">
         <v>43</v>
       </c>
@@ -27838,7 +27875,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="216" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:33" ht="16" hidden="1">
       <c r="A216" t="s">
         <v>44</v>
       </c>
@@ -27894,7 +27931,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="217" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:33" ht="16" hidden="1">
       <c r="A217" t="s">
         <v>45</v>
       </c>
@@ -27950,7 +27987,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="218" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:33" ht="16" hidden="1">
       <c r="A218" t="s">
         <v>46</v>
       </c>
@@ -28006,7 +28043,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="219" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:33" ht="16" hidden="1">
       <c r="A219" t="s">
         <v>47</v>
       </c>
@@ -28062,7 +28099,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="220" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:33" ht="16" hidden="1">
       <c r="A220" t="s">
         <v>48</v>
       </c>
@@ -28118,7 +28155,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="221" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:33" ht="16" hidden="1">
       <c r="A221" t="s">
         <v>49</v>
       </c>
@@ -28174,7 +28211,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="222" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:33" ht="16" hidden="1">
       <c r="A222" t="s">
         <v>50</v>
       </c>
@@ -28230,7 +28267,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="223" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:33" ht="16" hidden="1">
       <c r="A223" t="s">
         <v>51</v>
       </c>
@@ -28286,7 +28323,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="224" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:33" ht="16" hidden="1">
       <c r="A224" t="s">
         <v>52</v>
       </c>
@@ -28342,7 +28379,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="225" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:33" ht="16" hidden="1">
       <c r="A225" t="s">
         <v>53</v>
       </c>
@@ -28398,7 +28435,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="226" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:33" ht="16" hidden="1">
       <c r="A226" t="s">
         <v>54</v>
       </c>
@@ -28454,7 +28491,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="227" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:33" ht="16" hidden="1">
       <c r="A227" t="s">
         <v>55</v>
       </c>
@@ -28510,7 +28547,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="228" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:33" ht="16" hidden="1">
       <c r="A228" t="s">
         <v>56</v>
       </c>
@@ -28566,7 +28603,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="229" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:33" ht="16" hidden="1">
       <c r="A229" t="s">
         <v>57</v>
       </c>
@@ -28622,7 +28659,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="230" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:33" ht="16" hidden="1">
       <c r="A230" t="s">
         <v>58</v>
       </c>
@@ -28678,7 +28715,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="231" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:33" ht="16" hidden="1">
       <c r="A231" t="s">
         <v>59</v>
       </c>
@@ -28734,7 +28771,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="232" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:33" ht="16" hidden="1">
       <c r="A232" t="s">
         <v>60</v>
       </c>
@@ -28790,7 +28827,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="233" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:33" ht="16" hidden="1">
       <c r="A233" t="s">
         <v>61</v>
       </c>
@@ -28846,7 +28883,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="234" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:33" ht="16" hidden="1">
       <c r="A234" t="s">
         <v>62</v>
       </c>
@@ -28902,7 +28939,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="235" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:33" ht="16" hidden="1">
       <c r="A235" t="s">
         <v>63</v>
       </c>
@@ -28958,7 +28995,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="236" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:33" ht="16" hidden="1">
       <c r="A236" t="s">
         <v>64</v>
       </c>
@@ -29014,7 +29051,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="237" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:33" ht="16" hidden="1">
       <c r="A237" t="s">
         <v>65</v>
       </c>
@@ -29070,7 +29107,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="238" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:33" ht="16" hidden="1">
       <c r="A238" t="s">
         <v>66</v>
       </c>
@@ -29126,7 +29163,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="239" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:33" ht="16" hidden="1">
       <c r="A239" t="s">
         <v>67</v>
       </c>
@@ -29182,7 +29219,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="240" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:33" ht="16" hidden="1">
       <c r="A240" t="s">
         <v>68</v>
       </c>
@@ -29238,7 +29275,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="241" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:33" ht="16" hidden="1">
       <c r="A241" t="s">
         <v>69</v>
       </c>
@@ -29294,7 +29331,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="242" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:33" ht="16" hidden="1">
       <c r="A242" t="s">
         <v>70</v>
       </c>
@@ -29350,7 +29387,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="243" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:33" ht="16" hidden="1">
       <c r="A243" t="s">
         <v>71</v>
       </c>
@@ -29406,7 +29443,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="244" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:33" ht="16" hidden="1">
       <c r="A244" t="s">
         <v>72</v>
       </c>
@@ -29462,7 +29499,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="245" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:33" ht="16" hidden="1">
       <c r="A245" t="s">
         <v>73</v>
       </c>
@@ -29518,7 +29555,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="246" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:33" ht="16" hidden="1">
       <c r="A246" s="13" t="s">
         <v>74</v>
       </c>
@@ -29574,7 +29611,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="247" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:33" ht="16" hidden="1">
       <c r="A247" s="13" t="s">
         <v>75</v>
       </c>
@@ -29630,7 +29667,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="248" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:33" ht="16" hidden="1">
       <c r="A248" s="13" t="s">
         <v>76</v>
       </c>
@@ -29686,7 +29723,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="249" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:33" ht="16" hidden="1">
       <c r="A249" t="s">
         <v>77</v>
       </c>
@@ -29742,7 +29779,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="250" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:33" ht="16" hidden="1">
       <c r="A250" t="s">
         <v>78</v>
       </c>
@@ -29798,7 +29835,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="251" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:33" ht="16" hidden="1">
       <c r="A251" t="s">
         <v>79</v>
       </c>
@@ -29854,7 +29891,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="252" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:33" ht="16" hidden="1">
       <c r="A252" t="s">
         <v>80</v>
       </c>
@@ -29910,7 +29947,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="253" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:33" hidden="1">
       <c r="A253" t="s">
         <v>81</v>
       </c>
@@ -29966,7 +30003,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="254" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:33" ht="16" hidden="1">
       <c r="A254" t="s">
         <v>82</v>
       </c>
@@ -30022,7 +30059,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="255" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:33" ht="16" hidden="1">
       <c r="A255" t="s">
         <v>83</v>
       </c>
@@ -30078,7 +30115,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="256" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:33" ht="16" hidden="1">
       <c r="A256" t="s">
         <v>84</v>
       </c>
@@ -30134,7 +30171,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="257" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:33" ht="16" hidden="1">
       <c r="A257" t="s">
         <v>85</v>
       </c>
@@ -30190,7 +30227,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="258" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:33" ht="16" hidden="1">
       <c r="A258" t="s">
         <v>86</v>
       </c>
@@ -30246,7 +30283,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="259" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:33" ht="16" hidden="1">
       <c r="A259" t="s">
         <v>87</v>
       </c>
@@ -30302,7 +30339,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="260" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:33" ht="16" hidden="1">
       <c r="A260" t="s">
         <v>88</v>
       </c>
@@ -30358,7 +30395,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="261" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:33" ht="16" hidden="1">
       <c r="A261" t="s">
         <v>89</v>
       </c>
@@ -30414,7 +30451,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="262" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:33" ht="16" hidden="1">
       <c r="A262" t="s">
         <v>90</v>
       </c>
@@ -30470,7 +30507,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="263" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:33" ht="16" hidden="1">
       <c r="A263" t="s">
         <v>91</v>
       </c>
@@ -30526,7 +30563,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="264" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:33" ht="16" hidden="1">
       <c r="A264" t="s">
         <v>92</v>
       </c>
@@ -30582,7 +30619,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="265" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:33" ht="16" hidden="1">
       <c r="A265" t="s">
         <v>93</v>
       </c>
@@ -30638,7 +30675,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="266" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:33" ht="16" hidden="1">
       <c r="A266" t="s">
         <v>94</v>
       </c>
@@ -30694,7 +30731,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="267" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:33" ht="16" hidden="1">
       <c r="A267" t="s">
         <v>95</v>
       </c>
@@ -30750,7 +30787,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="268" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:33" ht="16" hidden="1">
       <c r="A268" t="s">
         <v>96</v>
       </c>
@@ -30806,7 +30843,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="269" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:33" ht="16" hidden="1">
       <c r="A269" t="s">
         <v>97</v>
       </c>
@@ -30862,7 +30899,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="270" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:33" ht="16" hidden="1">
       <c r="A270" t="s">
         <v>98</v>
       </c>
@@ -30918,7 +30955,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="271" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:33" ht="16" hidden="1">
       <c r="A271" t="s">
         <v>99</v>
       </c>
@@ -30974,7 +31011,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="272" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:33" ht="16" hidden="1">
       <c r="A272" t="s">
         <v>100</v>
       </c>
@@ -31030,7 +31067,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="273" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:33" ht="16" hidden="1">
       <c r="A273" t="s">
         <v>101</v>
       </c>
@@ -31086,7 +31123,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="274" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:33" ht="16" hidden="1">
       <c r="A274" t="s">
         <v>102</v>
       </c>
@@ -31142,7 +31179,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="275" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:33" ht="16" hidden="1">
       <c r="A275" t="s">
         <v>103</v>
       </c>
@@ -31198,7 +31235,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="276" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:33" ht="16" hidden="1">
       <c r="A276" t="s">
         <v>104</v>
       </c>
@@ -31254,7 +31291,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="277" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:33" ht="16" hidden="1">
       <c r="A277" t="s">
         <v>105</v>
       </c>
@@ -31310,7 +31347,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="278" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:33" ht="16" hidden="1">
       <c r="A278" t="s">
         <v>106</v>
       </c>
@@ -31366,7 +31403,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="279" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:33" ht="16" hidden="1">
       <c r="A279" t="s">
         <v>107</v>
       </c>
@@ -31422,7 +31459,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="280" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:33" ht="16" hidden="1">
       <c r="A280" t="s">
         <v>108</v>
       </c>
@@ -31478,7 +31515,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="281" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:33" ht="16" hidden="1">
       <c r="A281" s="13" t="s">
         <v>109</v>
       </c>
@@ -31534,7 +31571,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="282" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:33" ht="16" hidden="1">
       <c r="A282" s="13" t="s">
         <v>110</v>
       </c>
@@ -31590,7 +31627,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="283" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:33" ht="16" hidden="1">
       <c r="A283" s="13" t="s">
         <v>111</v>
       </c>
@@ -31646,7 +31683,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="284" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:33" ht="16" hidden="1">
       <c r="A284" t="s">
         <v>112</v>
       </c>
@@ -31702,7 +31739,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="285" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:33" ht="16" hidden="1">
       <c r="A285" t="s">
         <v>113</v>
       </c>
@@ -31758,7 +31795,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="286" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:33" ht="16" hidden="1">
       <c r="A286" t="s">
         <v>114</v>
       </c>
@@ -31814,7 +31851,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="287" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:33" ht="16" hidden="1">
       <c r="A287" t="s">
         <v>115</v>
       </c>
@@ -31870,7 +31907,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="288" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:33" ht="16" hidden="1">
       <c r="A288" t="s">
         <v>116</v>
       </c>
@@ -31926,7 +31963,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="289" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:33" ht="16" hidden="1">
       <c r="A289" t="s">
         <v>117</v>
       </c>
@@ -31982,7 +32019,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="290" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:33" ht="16" hidden="1">
       <c r="A290" t="s">
         <v>118</v>
       </c>
@@ -32038,7 +32075,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="291" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:33" ht="16" hidden="1">
       <c r="A291" t="s">
         <v>119</v>
       </c>
@@ -32094,7 +32131,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="292" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:33" ht="16" hidden="1">
       <c r="A292" t="s">
         <v>120</v>
       </c>
@@ -32150,7 +32187,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="293" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:33" ht="16" hidden="1">
       <c r="A293" t="s">
         <v>121</v>
       </c>
@@ -32206,7 +32243,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="294" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:33" ht="16" hidden="1">
       <c r="A294" t="s">
         <v>122</v>
       </c>
@@ -32262,7 +32299,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="295" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:33" ht="16" hidden="1">
       <c r="A295" t="s">
         <v>123</v>
       </c>
@@ -32318,7 +32355,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="296" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:33" ht="16" hidden="1">
       <c r="A296" t="s">
         <v>124</v>
       </c>
@@ -32374,7 +32411,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="297" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:33" ht="16" hidden="1">
       <c r="A297" s="13" t="s">
         <v>125</v>
       </c>
@@ -32430,7 +32467,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="298" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:33" ht="16" hidden="1">
       <c r="A298" t="s">
         <v>126</v>
       </c>
@@ -32486,7 +32523,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="299" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:33" ht="16" hidden="1">
       <c r="A299" t="s">
         <v>127</v>
       </c>
@@ -32542,7 +32579,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="300" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:33" ht="16" hidden="1">
       <c r="A300" t="s">
         <v>128</v>
       </c>
@@ -32598,7 +32635,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="301" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:33" ht="16" hidden="1">
       <c r="A301" t="s">
         <v>129</v>
       </c>
@@ -32654,7 +32691,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="302" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:33" ht="16" hidden="1">
       <c r="A302" t="s">
         <v>130</v>
       </c>
@@ -32710,7 +32747,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="303" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:33" ht="16" hidden="1">
       <c r="A303" t="s">
         <v>131</v>
       </c>
@@ -32766,7 +32803,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="304" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:33" ht="16" hidden="1">
       <c r="A304" t="s">
         <v>132</v>
       </c>
@@ -32822,7 +32859,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="305" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:33" ht="16" hidden="1">
       <c r="A305" t="s">
         <v>133</v>
       </c>
@@ -32878,7 +32915,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="306" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:33" ht="16" hidden="1">
       <c r="A306" t="s">
         <v>134</v>
       </c>
@@ -32934,7 +32971,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="307" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:33" ht="16" hidden="1">
       <c r="A307" t="s">
         <v>135</v>
       </c>
@@ -32990,7 +33027,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="308" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:33" ht="16" hidden="1">
       <c r="A308" t="s">
         <v>136</v>
       </c>
@@ -33046,7 +33083,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="309" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="309" spans="1:33" ht="16" hidden="1">
       <c r="A309" t="s">
         <v>137</v>
       </c>
@@ -33102,7 +33139,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="310" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="310" spans="1:33" hidden="1">
       <c r="A310" t="s">
         <v>138</v>
       </c>
@@ -33158,7 +33195,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="311" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="311" spans="1:33" ht="16" hidden="1">
       <c r="A311" s="13" t="s">
         <v>139</v>
       </c>
@@ -33214,7 +33251,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="312" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="312" spans="1:33" ht="16" hidden="1">
       <c r="A312" t="s">
         <v>140</v>
       </c>
@@ -33270,7 +33307,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="313" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="313" spans="1:33" ht="16" hidden="1">
       <c r="A313" t="s">
         <v>141</v>
       </c>
@@ -33326,7 +33363,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="314" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="314" spans="1:33" ht="16" hidden="1">
       <c r="A314" t="s">
         <v>142</v>
       </c>
@@ -33382,7 +33419,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="315" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="315" spans="1:33" ht="16" hidden="1">
       <c r="A315" t="s">
         <v>143</v>
       </c>
@@ -33438,7 +33475,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="316" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="316" spans="1:33" ht="16" hidden="1">
       <c r="A316" t="s">
         <v>144</v>
       </c>
@@ -33494,7 +33531,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="317" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="317" spans="1:33" ht="16" hidden="1">
       <c r="A317" t="s">
         <v>145</v>
       </c>
@@ -33550,7 +33587,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="318" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="318" spans="1:33" ht="16" hidden="1">
       <c r="A318" t="s">
         <v>146</v>
       </c>
@@ -33606,7 +33643,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="319" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="319" spans="1:33" ht="16" hidden="1">
       <c r="A319" t="s">
         <v>147</v>
       </c>
@@ -33662,7 +33699,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="320" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="320" spans="1:33" ht="16" hidden="1">
       <c r="A320" t="s">
         <v>148</v>
       </c>
@@ -33718,7 +33755,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="321" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="321" spans="1:33" ht="16" hidden="1">
       <c r="A321" t="s">
         <v>149</v>
       </c>
@@ -33774,7 +33811,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="322" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="322" spans="1:33" ht="16" hidden="1">
       <c r="A322" t="s">
         <v>150</v>
       </c>
@@ -33830,7 +33867,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="323" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="323" spans="1:33" ht="16" hidden="1">
       <c r="A323" t="s">
         <v>151</v>
       </c>
@@ -33886,7 +33923,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="324" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="324" spans="1:33" ht="16" hidden="1">
       <c r="A324" t="s">
         <v>152</v>
       </c>
@@ -33942,7 +33979,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="325" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="325" spans="1:33" ht="16" hidden="1">
       <c r="A325" t="s">
         <v>153</v>
       </c>
@@ -33998,7 +34035,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="326" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="326" spans="1:33" ht="16" hidden="1">
       <c r="A326" t="s">
         <v>154</v>
       </c>
@@ -34054,7 +34091,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="327" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="327" spans="1:33" ht="16" hidden="1">
       <c r="A327" t="s">
         <v>155</v>
       </c>
@@ -34110,7 +34147,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="328" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="328" spans="1:33" ht="16" hidden="1">
       <c r="A328" t="s">
         <v>156</v>
       </c>
@@ -34166,7 +34203,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="329" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="329" spans="1:33" ht="16" hidden="1">
       <c r="A329" t="s">
         <v>157</v>
       </c>
@@ -34222,7 +34259,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="330" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="330" spans="1:33" ht="16" hidden="1">
       <c r="A330" t="s">
         <v>158</v>
       </c>
@@ -34278,7 +34315,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="331" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="331" spans="1:33" ht="16" hidden="1">
       <c r="A331" t="s">
         <v>159</v>
       </c>
@@ -34334,7 +34371,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="332" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="332" spans="1:33" ht="16" hidden="1">
       <c r="A332" t="s">
         <v>160</v>
       </c>
@@ -34390,7 +34427,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="333" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="333" spans="1:33" ht="16" hidden="1">
       <c r="A333" t="s">
         <v>161</v>
       </c>
@@ -34446,7 +34483,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="334" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="334" spans="1:33" ht="16" hidden="1">
       <c r="A334" t="s">
         <v>162</v>
       </c>
@@ -34502,7 +34539,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="335" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="335" spans="1:33" ht="16" hidden="1">
       <c r="A335" t="s">
         <v>163</v>
       </c>
@@ -34558,7 +34595,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="336" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="336" spans="1:33" ht="16" hidden="1">
       <c r="A336" t="s">
         <v>164</v>
       </c>
@@ -34614,7 +34651,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="337" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="337" spans="1:33" ht="16" hidden="1">
       <c r="A337" t="s">
         <v>165</v>
       </c>
@@ -34670,7 +34707,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="338" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="338" spans="1:33" ht="16" hidden="1">
       <c r="A338" t="s">
         <v>166</v>
       </c>
@@ -34726,7 +34763,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="339" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="339" spans="1:33" ht="16" hidden="1">
       <c r="A339" t="s">
         <v>167</v>
       </c>
@@ -34782,7 +34819,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="340" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="340" spans="1:33" ht="16" hidden="1">
       <c r="A340" t="s">
         <v>168</v>
       </c>
@@ -34838,7 +34875,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="341" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="341" spans="1:33" ht="16" hidden="1">
       <c r="A341" t="s">
         <v>169</v>
       </c>
@@ -34898,7 +34935,7 @@
   <autoFilter ref="A1:AJ341" xr:uid="{2D5169CF-7F1C-432E-8036-8F0C7CF11FC2}">
     <filterColumn colId="16">
       <filters>
-        <filter val="2"/>
+        <filter val="1"/>
       </filters>
     </filterColumn>
   </autoFilter>
@@ -34915,18 +34952,18 @@
       <selection activeCell="K201" sqref="K201"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="18" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="19.375" customWidth="1"/>
-    <col min="14" max="14" width="21.375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="12.375" customWidth="1"/>
-    <col min="16" max="16" width="8.875" customWidth="1"/>
+    <col min="13" max="13" width="19.33203125" customWidth="1"/>
+    <col min="14" max="14" width="21.33203125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.33203125" customWidth="1"/>
+    <col min="16" max="16" width="8.83203125" customWidth="1"/>
     <col min="18" max="18" width="11" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="18.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:19" ht="14.25">
       <c r="A1" s="7" t="s">
         <v>187</v>
       </c>
@@ -34985,7 +35022,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:19" ht="14.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -35044,7 +35081,7 @@
         <v>881</v>
       </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:19" ht="16">
       <c r="L3" t="s">
         <v>990</v>
       </c>
@@ -35061,7 +35098,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:19" ht="14.25">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -35120,7 +35157,7 @@
         <v>882</v>
       </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" ht="16">
       <c r="L5" t="s">
         <v>991</v>
       </c>
@@ -35137,7 +35174,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" ht="14.25">
       <c r="A6" t="s">
         <v>2</v>
       </c>
@@ -35196,7 +35233,7 @@
         <v>883</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" ht="16">
       <c r="L7" t="s">
         <v>992</v>
       </c>
@@ -35213,7 +35250,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19" ht="14.25">
       <c r="A8" t="s">
         <v>3</v>
       </c>
@@ -35272,7 +35309,7 @@
         <v>884</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:19" ht="16">
       <c r="L9" t="s">
         <v>990</v>
       </c>
@@ -35289,7 +35326,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:19" ht="14.25">
       <c r="A10" t="s">
         <v>4</v>
       </c>
@@ -35348,7 +35385,7 @@
         <v>884</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:19" ht="16">
       <c r="L11" t="s">
         <v>990</v>
       </c>
@@ -35365,7 +35402,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:19" ht="14.25">
       <c r="A12" t="s">
         <v>5</v>
       </c>
@@ -35424,7 +35461,7 @@
         <v>885</v>
       </c>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:19" ht="16">
       <c r="L13" t="s">
         <v>992</v>
       </c>
@@ -35441,7 +35478,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:19" ht="14.25">
       <c r="A14" t="s">
         <v>6</v>
       </c>
@@ -35500,7 +35537,7 @@
         <v>886</v>
       </c>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:19" ht="16">
       <c r="L15" t="s">
         <v>992</v>
       </c>
@@ -35517,7 +35554,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:19" ht="14.25">
       <c r="A16" t="s">
         <v>7</v>
       </c>
@@ -35576,7 +35613,7 @@
         <v>886</v>
       </c>
     </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:19" ht="16">
       <c r="L17" t="s">
         <v>992</v>
       </c>
@@ -35593,7 +35630,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:19" ht="14.25">
       <c r="A18" t="s">
         <v>8</v>
       </c>
@@ -35652,7 +35689,7 @@
         <v>887</v>
       </c>
     </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:19" ht="16">
       <c r="L19" t="s">
         <v>992</v>
       </c>
@@ -35669,7 +35706,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:19" ht="14.25">
       <c r="A20" t="s">
         <v>9</v>
       </c>
@@ -35728,7 +35765,7 @@
         <v>888</v>
       </c>
     </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:19" ht="16">
       <c r="L21" t="s">
         <v>992</v>
       </c>
@@ -35745,7 +35782,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:19" ht="14.25">
       <c r="A22" t="s">
         <v>10</v>
       </c>
@@ -35804,7 +35841,7 @@
         <v>889</v>
       </c>
     </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:19" ht="16">
       <c r="L23" t="s">
         <v>992</v>
       </c>
@@ -35821,7 +35858,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:19" ht="14.25">
       <c r="A24" t="s">
         <v>11</v>
       </c>
@@ -35880,7 +35917,7 @@
         <v>889</v>
       </c>
     </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:19" ht="16">
       <c r="L25" t="s">
         <v>992</v>
       </c>
@@ -35897,7 +35934,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:19" ht="14.25">
       <c r="A26" t="s">
         <v>12</v>
       </c>
@@ -35956,7 +35993,7 @@
         <v>890</v>
       </c>
     </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:19" ht="16">
       <c r="L27" t="s">
         <v>993</v>
       </c>
@@ -35973,7 +36010,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:19" ht="14.25">
       <c r="A28" t="s">
         <v>13</v>
       </c>
@@ -36032,7 +36069,7 @@
         <v>891</v>
       </c>
     </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:19" ht="16">
       <c r="L29" t="s">
         <v>992</v>
       </c>
@@ -36049,7 +36086,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:19" ht="14.25">
       <c r="A30" t="s">
         <v>14</v>
       </c>
@@ -36108,7 +36145,7 @@
         <v>892</v>
       </c>
     </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:19" ht="16">
       <c r="L31" t="s">
         <v>992</v>
       </c>
@@ -36125,7 +36162,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:19" ht="14.25">
       <c r="A32" t="s">
         <v>15</v>
       </c>
@@ -36184,7 +36221,7 @@
         <v>893</v>
       </c>
     </row>
-    <row r="33" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:19" ht="16">
       <c r="L33" t="s">
         <v>990</v>
       </c>
@@ -36201,7 +36238,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="34" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:19" ht="14.25">
       <c r="A34" t="s">
         <v>16</v>
       </c>
@@ -36260,7 +36297,7 @@
         <v>894</v>
       </c>
     </row>
-    <row r="35" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:19" ht="16">
       <c r="L35" t="s">
         <v>992</v>
       </c>
@@ -36277,7 +36314,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="36" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:19" ht="14.25">
       <c r="A36" t="s">
         <v>17</v>
       </c>
@@ -36336,7 +36373,7 @@
         <v>895</v>
       </c>
     </row>
-    <row r="37" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:19" ht="16">
       <c r="L37" t="s">
         <v>992</v>
       </c>
@@ -36353,7 +36390,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="38" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:19" ht="14.25">
       <c r="A38" t="s">
         <v>18</v>
       </c>
@@ -36412,7 +36449,7 @@
         <v>896</v>
       </c>
     </row>
-    <row r="39" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:19" ht="16">
       <c r="L39" t="s">
         <v>992</v>
       </c>
@@ -36429,7 +36466,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="40" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:19" ht="14.25">
       <c r="A40" t="s">
         <v>19</v>
       </c>
@@ -36488,7 +36525,7 @@
         <v>896</v>
       </c>
     </row>
-    <row r="41" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:19" ht="16">
       <c r="L41" t="s">
         <v>992</v>
       </c>
@@ -36505,7 +36542,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="42" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:19" ht="14.25">
       <c r="A42" t="s">
         <v>20</v>
       </c>
@@ -36564,7 +36601,7 @@
         <v>897</v>
       </c>
     </row>
-    <row r="43" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:19" ht="16">
       <c r="L43" t="s">
         <v>992</v>
       </c>
@@ -36581,7 +36618,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="44" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:19" ht="14.25">
       <c r="A44" t="s">
         <v>21</v>
       </c>
@@ -36640,7 +36677,7 @@
         <v>898</v>
       </c>
     </row>
-    <row r="45" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:19" ht="16">
       <c r="L45" t="s">
         <v>992</v>
       </c>
@@ -36657,7 +36694,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="46" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:19" ht="14.25">
       <c r="A46" t="s">
         <v>22</v>
       </c>
@@ -36716,7 +36753,7 @@
         <v>898</v>
       </c>
     </row>
-    <row r="47" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:19" ht="16">
       <c r="L47" t="s">
         <v>992</v>
       </c>
@@ -36733,7 +36770,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="48" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:19" ht="14.25">
       <c r="A48" t="s">
         <v>23</v>
       </c>
@@ -36792,7 +36829,7 @@
         <v>898</v>
       </c>
     </row>
-    <row r="49" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:19" ht="16">
       <c r="L49" t="s">
         <v>992</v>
       </c>
@@ -36809,7 +36846,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="50" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:19" ht="14.25">
       <c r="A50" t="s">
         <v>24</v>
       </c>
@@ -36868,7 +36905,7 @@
         <v>899</v>
       </c>
     </row>
-    <row r="51" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:19" ht="16">
       <c r="L51" t="s">
         <v>992</v>
       </c>
@@ -36885,7 +36922,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="52" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:19" ht="14.25">
       <c r="A52" t="s">
         <v>25</v>
       </c>
@@ -36944,7 +36981,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="53" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:19" ht="16">
       <c r="L53" t="s">
         <v>994</v>
       </c>
@@ -36961,7 +36998,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="54" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:19" ht="14.25">
       <c r="A54" t="s">
         <v>26</v>
       </c>
@@ -37020,7 +37057,7 @@
         <v>901</v>
       </c>
     </row>
-    <row r="55" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:19" ht="14.25">
       <c r="L55" t="s">
         <v>995</v>
       </c>
@@ -37037,7 +37074,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="56" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:19" ht="14.25">
       <c r="A56" t="s">
         <v>27</v>
       </c>
@@ -37096,7 +37133,7 @@
         <v>902</v>
       </c>
     </row>
-    <row r="57" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:19" ht="16">
       <c r="L57" t="s">
         <v>990</v>
       </c>
@@ -37113,7 +37150,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="58" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:19" ht="14.25">
       <c r="A58" t="s">
         <v>28</v>
       </c>
@@ -37172,7 +37209,7 @@
         <v>903</v>
       </c>
     </row>
-    <row r="59" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:19" ht="16">
       <c r="L59" t="s">
         <v>996</v>
       </c>
@@ -37189,7 +37226,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="60" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:19" ht="14.25">
       <c r="A60" t="s">
         <v>29</v>
       </c>
@@ -37248,7 +37285,7 @@
         <v>904</v>
       </c>
     </row>
-    <row r="61" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:19" ht="16">
       <c r="L61" t="s">
         <v>997</v>
       </c>
@@ -37265,7 +37302,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="62" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:19" ht="14.25">
       <c r="A62" t="s">
         <v>30</v>
       </c>
@@ -37324,7 +37361,7 @@
         <v>904</v>
       </c>
     </row>
-    <row r="63" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:19" ht="16">
       <c r="L63" t="s">
         <v>997</v>
       </c>
@@ -37341,7 +37378,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="64" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:19" ht="14.25">
       <c r="A64" t="s">
         <v>31</v>
       </c>
@@ -37400,7 +37437,7 @@
         <v>904</v>
       </c>
     </row>
-    <row r="65" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:19" ht="16">
       <c r="L65" t="s">
         <v>997</v>
       </c>
@@ -37417,7 +37454,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="66" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:19" ht="14.25">
       <c r="A66" t="s">
         <v>32</v>
       </c>
@@ -37476,7 +37513,7 @@
         <v>905</v>
       </c>
     </row>
-    <row r="67" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:19" ht="16">
       <c r="L67" t="s">
         <v>998</v>
       </c>
@@ -37493,7 +37530,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="68" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:19" ht="14.25">
       <c r="A68" t="s">
         <v>33</v>
       </c>
@@ -37552,7 +37589,7 @@
         <v>905</v>
       </c>
     </row>
-    <row r="69" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:19" ht="16">
       <c r="L69" t="s">
         <v>998</v>
       </c>
@@ -37569,7 +37606,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="70" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:19" ht="14.25">
       <c r="A70" t="s">
         <v>34</v>
       </c>
@@ -37628,7 +37665,7 @@
         <v>905</v>
       </c>
     </row>
-    <row r="71" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:19" ht="16">
       <c r="L71" t="s">
         <v>998</v>
       </c>
@@ -37645,7 +37682,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="72" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:19" ht="14.25">
       <c r="A72" t="s">
         <v>35</v>
       </c>
@@ -37704,7 +37741,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="73" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:19" ht="16">
       <c r="L73" t="s">
         <v>992</v>
       </c>
@@ -37721,7 +37758,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="74" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:19" ht="14.25">
       <c r="A74" t="s">
         <v>36</v>
       </c>
@@ -37780,7 +37817,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="75" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:19" ht="16">
       <c r="L75" t="s">
         <v>992</v>
       </c>
@@ -37797,7 +37834,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="76" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:19" ht="14.25">
       <c r="A76" t="s">
         <v>37</v>
       </c>
@@ -37856,7 +37893,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="77" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:19" ht="16">
       <c r="L77" t="s">
         <v>994</v>
       </c>
@@ -37873,7 +37910,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="78" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:19" ht="14.25">
       <c r="A78" t="s">
         <v>38</v>
       </c>
@@ -37932,7 +37969,7 @@
         <v>908</v>
       </c>
     </row>
-    <row r="79" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:19" ht="16">
       <c r="L79" t="s">
         <v>998</v>
       </c>
@@ -37949,7 +37986,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="80" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:19" ht="14.25">
       <c r="A80" t="s">
         <v>39</v>
       </c>
@@ -38008,7 +38045,7 @@
         <v>908</v>
       </c>
     </row>
-    <row r="81" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:19" ht="16">
       <c r="L81" t="s">
         <v>998</v>
       </c>
@@ -38025,7 +38062,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="82" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:19" ht="14.25">
       <c r="A82" t="s">
         <v>40</v>
       </c>
@@ -38084,7 +38121,7 @@
         <v>908</v>
       </c>
     </row>
-    <row r="83" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:19" ht="16">
       <c r="L83" t="s">
         <v>998</v>
       </c>
@@ -38101,7 +38138,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="84" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:19" ht="14.25">
       <c r="A84" t="s">
         <v>41</v>
       </c>
@@ -38160,7 +38197,7 @@
         <v>909</v>
       </c>
     </row>
-    <row r="85" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:19" ht="16">
       <c r="L85" t="s">
         <v>999</v>
       </c>
@@ -38177,7 +38214,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="86" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:19" ht="14.25">
       <c r="A86" t="s">
         <v>42</v>
       </c>
@@ -38236,7 +38273,7 @@
         <v>909</v>
       </c>
     </row>
-    <row r="87" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:19" ht="16">
       <c r="L87" t="s">
         <v>991</v>
       </c>
@@ -38253,7 +38290,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="88" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:19" ht="14.25">
       <c r="A88" t="s">
         <v>43</v>
       </c>
@@ -38312,7 +38349,7 @@
         <v>910</v>
       </c>
     </row>
-    <row r="89" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:19" ht="16">
       <c r="L89" t="s">
         <v>991</v>
       </c>
@@ -38329,7 +38366,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="90" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:19" ht="14.25">
       <c r="A90" t="s">
         <v>44</v>
       </c>
@@ -38388,7 +38425,7 @@
         <v>910</v>
       </c>
     </row>
-    <row r="91" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:19" ht="16">
       <c r="L91" t="s">
         <v>991</v>
       </c>
@@ -38405,7 +38442,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="92" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:19" ht="14.25">
       <c r="A92" t="s">
         <v>45</v>
       </c>
@@ -38464,7 +38501,7 @@
         <v>910</v>
       </c>
     </row>
-    <row r="93" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:19" ht="16">
       <c r="L93" t="s">
         <v>991</v>
       </c>
@@ -38481,7 +38518,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="94" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:19" ht="14.25">
       <c r="A94" t="s">
         <v>46</v>
       </c>
@@ -38540,7 +38577,7 @@
         <v>910</v>
       </c>
     </row>
-    <row r="95" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:19" ht="16">
       <c r="L95" t="s">
         <v>991</v>
       </c>
@@ -38557,7 +38594,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="96" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:19" ht="14.25">
       <c r="A96" t="s">
         <v>47</v>
       </c>
@@ -38616,7 +38653,7 @@
         <v>911</v>
       </c>
     </row>
-    <row r="97" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:19" ht="16">
       <c r="L97" t="s">
         <v>994</v>
       </c>
@@ -38633,7 +38670,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="98" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:19" ht="14.25">
       <c r="A98" t="s">
         <v>48</v>
       </c>
@@ -38692,7 +38729,7 @@
         <v>911</v>
       </c>
     </row>
-    <row r="99" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:19" ht="16">
       <c r="L99" t="s">
         <v>994</v>
       </c>
@@ -38709,7 +38746,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="100" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:19" ht="14.25">
       <c r="A100" t="s">
         <v>49</v>
       </c>
@@ -38768,7 +38805,7 @@
         <v>911</v>
       </c>
     </row>
-    <row r="101" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:19" ht="16">
       <c r="L101" t="s">
         <v>994</v>
       </c>
@@ -38785,7 +38822,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="102" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:19" ht="14.25">
       <c r="A102" t="s">
         <v>50</v>
       </c>
@@ -38844,7 +38881,7 @@
         <v>912</v>
       </c>
     </row>
-    <row r="103" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:19" ht="16">
       <c r="L103" t="s">
         <v>991</v>
       </c>
@@ -38861,7 +38898,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="104" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:19" ht="14.25">
       <c r="A104" t="s">
         <v>51</v>
       </c>
@@ -38920,7 +38957,7 @@
         <v>912</v>
       </c>
     </row>
-    <row r="105" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:19" ht="16">
       <c r="L105" t="s">
         <v>991</v>
       </c>
@@ -38937,7 +38974,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="106" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:19" ht="14.25">
       <c r="A106" t="s">
         <v>52</v>
       </c>
@@ -38996,7 +39033,7 @@
         <v>912</v>
       </c>
     </row>
-    <row r="107" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:19" ht="16">
       <c r="L107" t="s">
         <v>991</v>
       </c>
@@ -39013,7 +39050,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="108" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:19" ht="14.25">
       <c r="A108" t="s">
         <v>53</v>
       </c>
@@ -39072,7 +39109,7 @@
         <v>912</v>
       </c>
     </row>
-    <row r="109" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:19" ht="16">
       <c r="L109" t="s">
         <v>991</v>
       </c>
@@ -39089,7 +39126,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="110" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:19" ht="14.25">
       <c r="A110" t="s">
         <v>54</v>
       </c>
@@ -39148,7 +39185,7 @@
         <v>913</v>
       </c>
     </row>
-    <row r="111" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:19" ht="16">
       <c r="L111" t="s">
         <v>992</v>
       </c>
@@ -39165,7 +39202,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="112" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:19" ht="14.25">
       <c r="A112" t="s">
         <v>55</v>
       </c>
@@ -39224,7 +39261,7 @@
         <v>913</v>
       </c>
     </row>
-    <row r="113" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:19" ht="16">
       <c r="L113" t="s">
         <v>992</v>
       </c>
@@ -39241,7 +39278,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="114" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:19" ht="14.25">
       <c r="A114" t="s">
         <v>56</v>
       </c>
@@ -39300,7 +39337,7 @@
         <v>913</v>
       </c>
     </row>
-    <row r="115" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:19" ht="16">
       <c r="L115" t="s">
         <v>992</v>
       </c>
@@ -39317,7 +39354,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="116" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:19" ht="14.25">
       <c r="A116" t="s">
         <v>57</v>
       </c>
@@ -39376,7 +39413,7 @@
         <v>913</v>
       </c>
     </row>
-    <row r="117" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:19" ht="16">
       <c r="L117" t="s">
         <v>992</v>
       </c>
@@ -39393,7 +39430,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="118" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:19" ht="14.25">
       <c r="A118" t="s">
         <v>58</v>
       </c>
@@ -39452,7 +39489,7 @@
         <v>914</v>
       </c>
     </row>
-    <row r="119" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:19" ht="16">
       <c r="L119" t="s">
         <v>991</v>
       </c>
@@ -39469,7 +39506,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="120" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:19" ht="14.25">
       <c r="A120" t="s">
         <v>59</v>
       </c>
@@ -39528,7 +39565,7 @@
         <v>914</v>
       </c>
     </row>
-    <row r="121" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:19" ht="16">
       <c r="L121" t="s">
         <v>991</v>
       </c>
@@ -39545,7 +39582,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="122" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:19" ht="14.25">
       <c r="A122" t="s">
         <v>60</v>
       </c>
@@ -39604,7 +39641,7 @@
         <v>914</v>
       </c>
     </row>
-    <row r="123" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:19" ht="16">
       <c r="L123" t="s">
         <v>991</v>
       </c>
@@ -39621,7 +39658,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="124" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:19" ht="14.25">
       <c r="A124" t="s">
         <v>61</v>
       </c>
@@ -39680,7 +39717,7 @@
         <v>914</v>
       </c>
     </row>
-    <row r="125" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:19" ht="16">
       <c r="L125" t="s">
         <v>991</v>
       </c>
@@ -39697,7 +39734,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="126" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:19" ht="14.25">
       <c r="A126" t="s">
         <v>62</v>
       </c>
@@ -39756,7 +39793,7 @@
         <v>914</v>
       </c>
     </row>
-    <row r="127" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:19" ht="16">
       <c r="L127" t="s">
         <v>991</v>
       </c>
@@ -39773,7 +39810,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="128" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:19" ht="14.25">
       <c r="A128" t="s">
         <v>63</v>
       </c>
@@ -39832,7 +39869,7 @@
         <v>915</v>
       </c>
     </row>
-    <row r="129" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:19" ht="16">
       <c r="L129" t="s">
         <v>993</v>
       </c>
@@ -39849,7 +39886,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="130" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:19" ht="14.25">
       <c r="A130" t="s">
         <v>64</v>
       </c>
@@ -39908,7 +39945,7 @@
         <v>916</v>
       </c>
     </row>
-    <row r="131" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:19" ht="16">
       <c r="L131" t="s">
         <v>994</v>
       </c>
@@ -39925,7 +39962,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="132" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:19" ht="14.25">
       <c r="A132" t="s">
         <v>65</v>
       </c>
@@ -39984,7 +40021,7 @@
         <v>917</v>
       </c>
     </row>
-    <row r="133" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:19" ht="16">
       <c r="L133" t="s">
         <v>998</v>
       </c>
@@ -40001,7 +40038,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="134" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:19" ht="14.25">
       <c r="A134" t="s">
         <v>66</v>
       </c>
@@ -40060,7 +40097,7 @@
         <v>917</v>
       </c>
     </row>
-    <row r="135" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:19" ht="16">
       <c r="L135" t="s">
         <v>998</v>
       </c>
@@ -40077,7 +40114,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="136" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:19" ht="14.25">
       <c r="A136" t="s">
         <v>67</v>
       </c>
@@ -40136,7 +40173,7 @@
         <v>918</v>
       </c>
     </row>
-    <row r="137" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:19" ht="16">
       <c r="L137" t="s">
         <v>996</v>
       </c>
@@ -40153,7 +40190,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="138" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:19" ht="14.25">
       <c r="A138" t="s">
         <v>68</v>
       </c>
@@ -40212,7 +40249,7 @@
         <v>919</v>
       </c>
     </row>
-    <row r="139" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:19" ht="16">
       <c r="L139" t="s">
         <v>1000</v>
       </c>
@@ -40229,7 +40266,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="140" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:19" ht="14.25">
       <c r="A140" t="s">
         <v>69</v>
       </c>
@@ -40288,7 +40325,7 @@
         <v>919</v>
       </c>
     </row>
-    <row r="141" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:19" ht="16">
       <c r="L141" t="s">
         <v>1001</v>
       </c>
@@ -40305,7 +40342,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="142" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:19" ht="14.25">
       <c r="A142" t="s">
         <v>70</v>
       </c>
@@ -40364,7 +40401,7 @@
         <v>919</v>
       </c>
     </row>
-    <row r="143" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:19" ht="16">
       <c r="L143" t="s">
         <v>1001</v>
       </c>
@@ -40381,7 +40418,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="144" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:19" ht="14.25">
       <c r="A144" t="s">
         <v>71</v>
       </c>
@@ -40440,7 +40477,7 @@
         <v>920</v>
       </c>
     </row>
-    <row r="145" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:19" ht="16">
       <c r="L145" t="s">
         <v>998</v>
       </c>
@@ -40457,7 +40494,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="146" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:19" ht="14.25">
       <c r="A146" t="s">
         <v>72</v>
       </c>
@@ -40516,7 +40553,7 @@
         <v>920</v>
       </c>
     </row>
-    <row r="147" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:19" ht="16">
       <c r="L147" t="s">
         <v>994</v>
       </c>
@@ -40533,7 +40570,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="148" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:19" ht="14.25">
       <c r="A148" t="s">
         <v>73</v>
       </c>
@@ -40592,7 +40629,7 @@
         <v>920</v>
       </c>
     </row>
-    <row r="149" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:19" ht="16">
       <c r="L149" t="s">
         <v>994</v>
       </c>
@@ -40609,7 +40646,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="150" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:19" ht="14.25">
       <c r="A150" t="s">
         <v>74</v>
       </c>
@@ -40668,7 +40705,7 @@
         <v>921</v>
       </c>
     </row>
-    <row r="151" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:19" ht="16">
       <c r="L151" t="s">
         <v>998</v>
       </c>
@@ -40685,7 +40722,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="152" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:19" ht="14.25">
       <c r="A152" t="s">
         <v>75</v>
       </c>
@@ -40744,7 +40781,7 @@
         <v>921</v>
       </c>
     </row>
-    <row r="153" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:19" ht="16">
       <c r="L153" t="s">
         <v>994</v>
       </c>
@@ -40761,7 +40798,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="154" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:19" ht="14.25">
       <c r="A154" t="s">
         <v>76</v>
       </c>
@@ -40820,7 +40857,7 @@
         <v>921</v>
       </c>
     </row>
-    <row r="155" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:19" ht="16">
       <c r="L155" t="s">
         <v>994</v>
       </c>
@@ -40837,7 +40874,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="156" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:19" ht="14.25">
       <c r="A156" t="s">
         <v>77</v>
       </c>
@@ -40896,7 +40933,7 @@
         <v>922</v>
       </c>
     </row>
-    <row r="157" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:19" ht="16">
       <c r="L157" t="s">
         <v>992</v>
       </c>
@@ -40913,7 +40950,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="158" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:19" ht="14.25">
       <c r="A158" t="s">
         <v>78</v>
       </c>
@@ -40972,7 +41009,7 @@
         <v>922</v>
       </c>
     </row>
-    <row r="159" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:19" ht="16">
       <c r="L159" t="s">
         <v>992</v>
       </c>
@@ -40989,7 +41026,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="160" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:19" ht="14.25">
       <c r="A160" t="s">
         <v>79</v>
       </c>
@@ -41048,7 +41085,7 @@
         <v>922</v>
       </c>
     </row>
-    <row r="161" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:19" ht="16">
       <c r="L161" t="s">
         <v>992</v>
       </c>
@@ -41065,7 +41102,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="162" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:19" ht="14.25">
       <c r="A162" t="s">
         <v>80</v>
       </c>
@@ -41124,7 +41161,7 @@
         <v>922</v>
       </c>
     </row>
-    <row r="163" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:19" ht="16">
       <c r="L163" t="s">
         <v>992</v>
       </c>
@@ -41141,7 +41178,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="164" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:19" ht="14.25">
       <c r="A164" t="s">
         <v>81</v>
       </c>
@@ -41200,7 +41237,7 @@
         <v>922</v>
       </c>
     </row>
-    <row r="165" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:19" ht="14.25">
       <c r="L165" t="s">
         <v>992</v>
       </c>
@@ -41217,7 +41254,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="166" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:19" ht="14.25">
       <c r="A166" t="s">
         <v>82</v>
       </c>
@@ -41276,7 +41313,7 @@
         <v>923</v>
       </c>
     </row>
-    <row r="167" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:19" ht="16">
       <c r="L167" t="s">
         <v>994</v>
       </c>
@@ -41293,7 +41330,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="168" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:19" ht="14.25">
       <c r="A168" t="s">
         <v>83</v>
       </c>
@@ -41352,7 +41389,7 @@
         <v>923</v>
       </c>
     </row>
-    <row r="169" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:19" ht="16">
       <c r="L169" t="s">
         <v>994</v>
       </c>
@@ -41369,7 +41406,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="170" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:19" ht="14.25">
       <c r="A170" t="s">
         <v>84</v>
       </c>
@@ -41428,7 +41465,7 @@
         <v>924</v>
       </c>
     </row>
-    <row r="171" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:19" ht="16">
       <c r="L171" t="s">
         <v>997</v>
       </c>
@@ -41445,7 +41482,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="172" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:19" ht="14.25">
       <c r="A172" t="s">
         <v>85</v>
       </c>
@@ -41504,7 +41541,7 @@
         <v>925</v>
       </c>
     </row>
-    <row r="173" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:19" ht="16">
       <c r="L173" t="s">
         <v>999</v>
       </c>
@@ -41521,7 +41558,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="174" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:19" ht="14.25">
       <c r="A174" t="s">
         <v>86</v>
       </c>
@@ -41580,7 +41617,7 @@
         <v>926</v>
       </c>
     </row>
-    <row r="175" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:19" ht="16">
       <c r="L175" t="s">
         <v>999</v>
       </c>
@@ -41597,7 +41634,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="176" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:19" ht="14.25">
       <c r="A176" t="s">
         <v>87</v>
       </c>
@@ -41656,7 +41693,7 @@
         <v>926</v>
       </c>
     </row>
-    <row r="177" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:19" ht="16">
       <c r="L177" t="s">
         <v>999</v>
       </c>
@@ -41673,7 +41710,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="178" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:19" ht="14.25">
       <c r="A178" t="s">
         <v>88</v>
       </c>
@@ -41732,7 +41769,7 @@
         <v>926</v>
       </c>
     </row>
-    <row r="179" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:19" ht="16">
       <c r="L179" t="s">
         <v>999</v>
       </c>
@@ -41749,7 +41786,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="180" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:19" ht="14.25">
       <c r="A180" t="s">
         <v>89</v>
       </c>
@@ -41808,7 +41845,7 @@
         <v>927</v>
       </c>
     </row>
-    <row r="181" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:19" ht="16">
       <c r="L181" t="s">
         <v>991</v>
       </c>
@@ -41825,7 +41862,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="182" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:19" ht="14.25">
       <c r="A182" t="s">
         <v>90</v>
       </c>
@@ -41884,7 +41921,7 @@
         <v>927</v>
       </c>
     </row>
-    <row r="183" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:19" ht="16">
       <c r="L183" t="s">
         <v>991</v>
       </c>
@@ -41901,7 +41938,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="184" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:19" ht="14.25">
       <c r="A184" t="s">
         <v>91</v>
       </c>
@@ -41960,7 +41997,7 @@
         <v>928</v>
       </c>
     </row>
-    <row r="185" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:19" ht="16">
       <c r="L185" t="s">
         <v>999</v>
       </c>
@@ -41977,7 +42014,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="186" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:19" ht="14.25">
       <c r="A186" t="s">
         <v>92</v>
       </c>
@@ -42036,7 +42073,7 @@
         <v>928</v>
       </c>
     </row>
-    <row r="187" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:19" ht="16">
       <c r="L187" t="s">
         <v>999</v>
       </c>
@@ -42053,7 +42090,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="188" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:19" ht="14.25">
       <c r="A188" t="s">
         <v>93</v>
       </c>
@@ -42112,7 +42149,7 @@
         <v>928</v>
       </c>
     </row>
-    <row r="189" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:19" ht="16">
       <c r="L189" t="s">
         <v>999</v>
       </c>
@@ -42129,7 +42166,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="190" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:19" ht="14.25">
       <c r="A190" t="s">
         <v>94</v>
       </c>
@@ -42188,7 +42225,7 @@
         <v>929</v>
       </c>
     </row>
-    <row r="191" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:19" ht="16">
       <c r="L191" t="s">
         <v>996</v>
       </c>
@@ -42205,7 +42242,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="192" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:19" ht="14.25">
       <c r="A192" t="s">
         <v>95</v>
       </c>
@@ -42264,7 +42301,7 @@
         <v>930</v>
       </c>
     </row>
-    <row r="193" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:19" ht="16">
       <c r="L193" t="s">
         <v>999</v>
       </c>
@@ -42281,7 +42318,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="194" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:19" ht="14.25">
       <c r="A194" t="s">
         <v>96</v>
       </c>
@@ -42340,7 +42377,7 @@
         <v>930</v>
       </c>
     </row>
-    <row r="195" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:19" ht="16">
       <c r="L195" t="s">
         <v>999</v>
       </c>
@@ -42357,7 +42394,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="196" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:19" ht="14.25">
       <c r="A196" t="s">
         <v>97</v>
       </c>
@@ -42416,7 +42453,7 @@
         <v>930</v>
       </c>
     </row>
-    <row r="197" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:19" ht="16">
       <c r="L197" t="s">
         <v>999</v>
       </c>
@@ -42433,7 +42470,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="198" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:19" ht="14.25">
       <c r="A198" t="s">
         <v>98</v>
       </c>
@@ -42492,7 +42529,7 @@
         <v>931</v>
       </c>
     </row>
-    <row r="199" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:19" ht="16">
       <c r="L199" t="s">
         <v>1002</v>
       </c>
@@ -42509,7 +42546,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="200" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:19" ht="14.25">
       <c r="A200" t="s">
         <v>99</v>
       </c>
@@ -42568,7 +42605,7 @@
         <v>931</v>
       </c>
     </row>
-    <row r="201" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:19" ht="16">
       <c r="L201" t="s">
         <v>1002</v>
       </c>
@@ -42585,7 +42622,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="202" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:19" ht="14.25">
       <c r="A202" t="s">
         <v>100</v>
       </c>
@@ -42644,7 +42681,7 @@
         <v>931</v>
       </c>
     </row>
-    <row r="203" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:19" ht="16">
       <c r="L203" t="s">
         <v>1002</v>
       </c>
@@ -42661,7 +42698,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="204" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:19" ht="14.25">
       <c r="A204" t="s">
         <v>101</v>
       </c>
@@ -42720,7 +42757,7 @@
         <v>931</v>
       </c>
     </row>
-    <row r="205" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:19" ht="16">
       <c r="L205" t="s">
         <v>1002</v>
       </c>
@@ -42737,7 +42774,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="206" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:19" ht="14.25">
       <c r="A206" t="s">
         <v>102</v>
       </c>
@@ -42796,7 +42833,7 @@
         <v>932</v>
       </c>
     </row>
-    <row r="207" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:19" ht="16">
       <c r="L207" t="s">
         <v>991</v>
       </c>
@@ -42813,7 +42850,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="208" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:19" ht="14.25">
       <c r="A208" t="s">
         <v>103</v>
       </c>
@@ -42872,7 +42909,7 @@
         <v>933</v>
       </c>
     </row>
-    <row r="209" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:19" ht="16">
       <c r="L209" t="s">
         <v>997</v>
       </c>
@@ -42889,7 +42926,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="210" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:19" ht="14.25">
       <c r="A210" t="s">
         <v>104</v>
       </c>
@@ -42948,7 +42985,7 @@
         <v>934</v>
       </c>
     </row>
-    <row r="211" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:19" ht="16">
       <c r="L211" t="s">
         <v>991</v>
       </c>
@@ -42965,7 +43002,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="212" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:19" ht="14.25">
       <c r="A212" t="s">
         <v>105</v>
       </c>
@@ -43024,7 +43061,7 @@
         <v>935</v>
       </c>
     </row>
-    <row r="213" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:19" ht="16">
       <c r="L213" t="s">
         <v>992</v>
       </c>
@@ -43041,7 +43078,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="214" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:19" ht="14.25">
       <c r="A214" t="s">
         <v>106</v>
       </c>
@@ -43100,7 +43137,7 @@
         <v>936</v>
       </c>
     </row>
-    <row r="215" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:19" ht="16">
       <c r="L215" t="s">
         <v>992</v>
       </c>
@@ -43117,7 +43154,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="216" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:19" ht="14.25">
       <c r="A216" t="s">
         <v>107</v>
       </c>
@@ -43176,7 +43213,7 @@
         <v>937</v>
       </c>
     </row>
-    <row r="217" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:19" ht="16">
       <c r="L217" t="s">
         <v>992</v>
       </c>
@@ -43193,7 +43230,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="218" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:19" ht="14.25">
       <c r="A218" t="s">
         <v>108</v>
       </c>
@@ -43252,7 +43289,7 @@
         <v>937</v>
       </c>
     </row>
-    <row r="219" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:19" ht="16">
       <c r="L219" t="s">
         <v>992</v>
       </c>
@@ -43269,7 +43306,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="220" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:19" ht="14.25">
       <c r="A220" t="s">
         <v>109</v>
       </c>
@@ -43328,7 +43365,7 @@
         <v>938</v>
       </c>
     </row>
-    <row r="221" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:19" ht="16">
       <c r="L221" t="s">
         <v>992</v>
       </c>
@@ -43345,7 +43382,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="222" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:19" ht="14.25">
       <c r="A222" t="s">
         <v>110</v>
       </c>
@@ -43404,7 +43441,7 @@
         <v>938</v>
       </c>
     </row>
-    <row r="223" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:19" ht="16">
       <c r="L223" t="s">
         <v>992</v>
       </c>
@@ -43421,7 +43458,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="224" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:19" ht="14.25">
       <c r="A224" t="s">
         <v>111</v>
       </c>
@@ -43480,7 +43517,7 @@
         <v>938</v>
       </c>
     </row>
-    <row r="225" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:19" ht="16">
       <c r="L225" t="s">
         <v>992</v>
       </c>
@@ -43497,7 +43534,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="226" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:19" ht="14.25">
       <c r="A226" t="s">
         <v>112</v>
       </c>
@@ -43556,7 +43593,7 @@
         <v>939</v>
       </c>
     </row>
-    <row r="227" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:19" ht="16">
       <c r="L227" t="s">
         <v>994</v>
       </c>
@@ -43573,7 +43610,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="228" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:19">
       <c r="A228" t="s">
         <v>113</v>
       </c>
@@ -43632,7 +43669,7 @@
         <v>939</v>
       </c>
     </row>
-    <row r="229" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:19" ht="16">
       <c r="L229" t="s">
         <v>994</v>
       </c>
@@ -43649,7 +43686,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="230" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:19">
       <c r="A230" t="s">
         <v>114</v>
       </c>
@@ -43708,7 +43745,7 @@
         <v>939</v>
       </c>
     </row>
-    <row r="231" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:19" ht="16">
       <c r="L231" t="s">
         <v>994</v>
       </c>
@@ -43725,7 +43762,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="232" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:19">
       <c r="A232" t="s">
         <v>115</v>
       </c>
@@ -43784,7 +43821,7 @@
         <v>940</v>
       </c>
     </row>
-    <row r="233" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:19" ht="16">
       <c r="L233" t="s">
         <v>992</v>
       </c>
@@ -43801,7 +43838,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="234" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:19">
       <c r="A234" t="s">
         <v>116</v>
       </c>
@@ -43860,7 +43897,7 @@
         <v>940</v>
       </c>
     </row>
-    <row r="235" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:19" ht="16">
       <c r="L235" t="s">
         <v>992</v>
       </c>
@@ -43877,7 +43914,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="236" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:19">
       <c r="A236" t="s">
         <v>117</v>
       </c>
@@ -43936,7 +43973,7 @@
         <v>940</v>
       </c>
     </row>
-    <row r="237" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:19" ht="16">
       <c r="L237" t="s">
         <v>992</v>
       </c>
@@ -43953,7 +43990,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="238" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:19">
       <c r="A238" t="s">
         <v>118</v>
       </c>
@@ -44012,7 +44049,7 @@
         <v>941</v>
       </c>
     </row>
-    <row r="239" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:19" ht="16">
       <c r="L239" t="s">
         <v>996</v>
       </c>
@@ -44029,7 +44066,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="240" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:19">
       <c r="A240" t="s">
         <v>119</v>
       </c>
@@ -44088,7 +44125,7 @@
         <v>941</v>
       </c>
     </row>
-    <row r="241" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:19" ht="16">
       <c r="L241" t="s">
         <v>996</v>
       </c>
@@ -44105,7 +44142,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="242" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:19">
       <c r="A242" t="s">
         <v>120</v>
       </c>
@@ -44164,7 +44201,7 @@
         <v>941</v>
       </c>
     </row>
-    <row r="243" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:19" ht="16">
       <c r="L243" t="s">
         <v>990</v>
       </c>
@@ -44181,7 +44218,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="244" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:19">
       <c r="A244" t="s">
         <v>121</v>
       </c>
@@ -44240,7 +44277,7 @@
         <v>941</v>
       </c>
     </row>
-    <row r="245" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:19" ht="16">
       <c r="L245" t="s">
         <v>990</v>
       </c>
@@ -44257,7 +44294,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="246" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:19">
       <c r="A246" t="s">
         <v>122</v>
       </c>
@@ -44316,7 +44353,7 @@
         <v>942</v>
       </c>
     </row>
-    <row r="247" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:19" ht="16">
       <c r="L247" t="s">
         <v>990</v>
       </c>
@@ -44333,7 +44370,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="248" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:19">
       <c r="A248" t="s">
         <v>123</v>
       </c>
@@ -44392,7 +44429,7 @@
         <v>943</v>
       </c>
     </row>
-    <row r="249" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:19" ht="16">
       <c r="L249" t="s">
         <v>998</v>
       </c>
@@ -44409,7 +44446,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="250" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:19">
       <c r="A250" t="s">
         <v>124</v>
       </c>
@@ -44468,7 +44505,7 @@
         <v>944</v>
       </c>
     </row>
-    <row r="251" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:19" ht="16">
       <c r="L251" t="s">
         <v>992</v>
       </c>
@@ -44485,7 +44522,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="252" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:19">
       <c r="A252" t="s">
         <v>125</v>
       </c>
@@ -44544,7 +44581,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="253" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:19" ht="16">
       <c r="L253" t="s">
         <v>992</v>
       </c>
@@ -44561,7 +44598,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="254" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:19">
       <c r="A254" t="s">
         <v>126</v>
       </c>
@@ -44620,7 +44657,7 @@
         <v>946</v>
       </c>
     </row>
-    <row r="255" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:19" ht="16">
       <c r="L255" t="s">
         <v>999</v>
       </c>
@@ -44637,7 +44674,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="256" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:19">
       <c r="A256" t="s">
         <v>127</v>
       </c>
@@ -44696,7 +44733,7 @@
         <v>946</v>
       </c>
     </row>
-    <row r="257" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:19" ht="16">
       <c r="L257" t="s">
         <v>1003</v>
       </c>
@@ -44713,7 +44750,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="258" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:19">
       <c r="A258" t="s">
         <v>128</v>
       </c>
@@ -44772,7 +44809,7 @@
         <v>947</v>
       </c>
     </row>
-    <row r="259" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:19" ht="16">
       <c r="L259" t="s">
         <v>997</v>
       </c>
@@ -44789,7 +44826,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="260" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:19">
       <c r="A260" t="s">
         <v>129</v>
       </c>
@@ -44848,7 +44885,7 @@
         <v>948</v>
       </c>
     </row>
-    <row r="261" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:19" ht="16">
       <c r="L261" t="s">
         <v>1003</v>
       </c>
@@ -44865,7 +44902,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="262" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:19">
       <c r="A262" t="s">
         <v>130</v>
       </c>
@@ -44924,7 +44961,7 @@
         <v>949</v>
       </c>
     </row>
-    <row r="263" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:19" ht="16">
       <c r="L263" t="s">
         <v>995</v>
       </c>
@@ -44941,7 +44978,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="264" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:19">
       <c r="A264" t="s">
         <v>131</v>
       </c>
@@ -45000,7 +45037,7 @@
         <v>950</v>
       </c>
     </row>
-    <row r="265" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:19" ht="16">
       <c r="L265" t="s">
         <v>996</v>
       </c>
@@ -45017,7 +45054,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="266" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:19">
       <c r="A266" t="s">
         <v>132</v>
       </c>
@@ -45076,7 +45113,7 @@
         <v>950</v>
       </c>
     </row>
-    <row r="267" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:19" ht="16">
       <c r="L267" t="s">
         <v>996</v>
       </c>
@@ -45093,7 +45130,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="268" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:19">
       <c r="A268" t="s">
         <v>133</v>
       </c>
@@ -45152,7 +45189,7 @@
         <v>950</v>
       </c>
     </row>
-    <row r="269" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:19" ht="16">
       <c r="L269" t="s">
         <v>990</v>
       </c>
@@ -45169,7 +45206,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="270" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:19">
       <c r="A270" t="s">
         <v>134</v>
       </c>
@@ -45228,7 +45265,7 @@
         <v>950</v>
       </c>
     </row>
-    <row r="271" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:19" ht="16">
       <c r="L271" t="s">
         <v>990</v>
       </c>
@@ -45245,7 +45282,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="272" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:19">
       <c r="A272" t="s">
         <v>135</v>
       </c>
@@ -45304,7 +45341,7 @@
         <v>950</v>
       </c>
     </row>
-    <row r="273" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:19" ht="16">
       <c r="L273" t="s">
         <v>990</v>
       </c>
@@ -45321,7 +45358,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="274" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:19">
       <c r="A274" t="s">
         <v>136</v>
       </c>
@@ -45380,7 +45417,7 @@
         <v>951</v>
       </c>
     </row>
-    <row r="275" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:19" ht="16">
       <c r="L275" t="s">
         <v>995</v>
       </c>
@@ -45397,7 +45434,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="276" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:19">
       <c r="A276" t="s">
         <v>137</v>
       </c>
@@ -45456,7 +45493,7 @@
         <v>951</v>
       </c>
     </row>
-    <row r="277" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:19" ht="16">
       <c r="L277" t="s">
         <v>995</v>
       </c>
@@ -45473,7 +45510,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="278" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:19">
       <c r="A278" t="s">
         <v>138</v>
       </c>
@@ -45532,7 +45569,7 @@
         <v>951</v>
       </c>
     </row>
-    <row r="279" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:19">
       <c r="L279" t="s">
         <v>995</v>
       </c>
@@ -45549,7 +45586,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="280" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:19">
       <c r="A280" t="s">
         <v>139</v>
       </c>
@@ -45608,7 +45645,7 @@
         <v>952</v>
       </c>
     </row>
-    <row r="281" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:19" ht="16">
       <c r="L281" t="s">
         <v>991</v>
       </c>
@@ -45625,7 +45662,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="282" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:19">
       <c r="A282" t="s">
         <v>140</v>
       </c>
@@ -45684,7 +45721,7 @@
         <v>953</v>
       </c>
     </row>
-    <row r="283" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:19" ht="16">
       <c r="L283" t="s">
         <v>998</v>
       </c>
@@ -45701,7 +45738,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="284" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:19">
       <c r="A284" t="s">
         <v>141</v>
       </c>
@@ -45760,7 +45797,7 @@
         <v>953</v>
       </c>
     </row>
-    <row r="285" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:19" ht="16">
       <c r="L285" t="s">
         <v>994</v>
       </c>
@@ -45777,7 +45814,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="286" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:19">
       <c r="A286" t="s">
         <v>142</v>
       </c>
@@ -45836,7 +45873,7 @@
         <v>953</v>
       </c>
     </row>
-    <row r="287" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:19" ht="16">
       <c r="L287" t="s">
         <v>994</v>
       </c>
@@ -45853,7 +45890,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="288" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:19">
       <c r="A288" t="s">
         <v>143</v>
       </c>
@@ -45912,7 +45949,7 @@
         <v>954</v>
       </c>
     </row>
-    <row r="289" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:19" ht="16">
       <c r="L289" t="s">
         <v>998</v>
       </c>
@@ -45929,7 +45966,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="290" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:19">
       <c r="A290" t="s">
         <v>144</v>
       </c>
@@ -45988,7 +46025,7 @@
         <v>954</v>
       </c>
     </row>
-    <row r="291" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:19" ht="16">
       <c r="L291" t="s">
         <v>994</v>
       </c>
@@ -46005,7 +46042,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="292" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:19">
       <c r="A292" t="s">
         <v>145</v>
       </c>
@@ -46064,7 +46101,7 @@
         <v>954</v>
       </c>
     </row>
-    <row r="293" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:19" ht="16">
       <c r="L293" t="s">
         <v>994</v>
       </c>
@@ -46081,7 +46118,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="294" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:19">
       <c r="A294" t="s">
         <v>146</v>
       </c>
@@ -46140,7 +46177,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="295" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:19" ht="16">
       <c r="L295" t="s">
         <v>997</v>
       </c>
@@ -46157,7 +46194,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="296" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:19">
       <c r="A296" t="s">
         <v>147</v>
       </c>
@@ -46216,7 +46253,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="297" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:19" ht="16">
       <c r="L297" t="s">
         <v>992</v>
       </c>
@@ -46233,7 +46270,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="298" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:19">
       <c r="A298" t="s">
         <v>148</v>
       </c>
@@ -46292,7 +46329,7 @@
         <v>956</v>
       </c>
     </row>
-    <row r="299" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:19" ht="16">
       <c r="L299" t="s">
         <v>997</v>
       </c>
@@ -46309,7 +46346,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="300" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:19">
       <c r="A300" t="s">
         <v>149</v>
       </c>
@@ -46368,7 +46405,7 @@
         <v>956</v>
       </c>
     </row>
-    <row r="301" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:19" ht="16">
       <c r="L301" t="s">
         <v>992</v>
       </c>
@@ -46385,7 +46422,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="302" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:19">
       <c r="A302" t="s">
         <v>150</v>
       </c>
@@ -46444,7 +46481,7 @@
         <v>956</v>
       </c>
     </row>
-    <row r="303" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:19" ht="16">
       <c r="L303" t="s">
         <v>992</v>
       </c>
@@ -46461,7 +46498,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="304" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:19">
       <c r="A304" t="s">
         <v>151</v>
       </c>
@@ -46520,7 +46557,7 @@
         <v>956</v>
       </c>
     </row>
-    <row r="305" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:19" ht="16">
       <c r="L305" t="s">
         <v>992</v>
       </c>
@@ -46537,7 +46574,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="306" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:19">
       <c r="A306" t="s">
         <v>152</v>
       </c>
@@ -46596,7 +46633,7 @@
         <v>957</v>
       </c>
     </row>
-    <row r="307" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:19" ht="16">
       <c r="L307" t="s">
         <v>990</v>
       </c>
@@ -46613,7 +46650,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="308" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:19">
       <c r="A308" t="s">
         <v>153</v>
       </c>
@@ -46672,7 +46709,7 @@
         <v>958</v>
       </c>
     </row>
-    <row r="309" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="309" spans="1:19" ht="16">
       <c r="L309" t="s">
         <v>1004</v>
       </c>
@@ -46689,7 +46726,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="310" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="310" spans="1:19">
       <c r="A310" t="s">
         <v>154</v>
       </c>
@@ -46748,7 +46785,7 @@
         <v>958</v>
       </c>
     </row>
-    <row r="311" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="311" spans="1:19" ht="16">
       <c r="L311" t="s">
         <v>1004</v>
       </c>
@@ -46765,7 +46802,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="312" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="312" spans="1:19">
       <c r="A312" t="s">
         <v>155</v>
       </c>
@@ -46824,7 +46861,7 @@
         <v>958</v>
       </c>
     </row>
-    <row r="313" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="313" spans="1:19" ht="16">
       <c r="L313" t="s">
         <v>1004</v>
       </c>
@@ -46841,7 +46878,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="314" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="314" spans="1:19">
       <c r="A314" t="s">
         <v>156</v>
       </c>
@@ -46900,7 +46937,7 @@
         <v>958</v>
       </c>
     </row>
-    <row r="315" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="315" spans="1:19" ht="16">
       <c r="L315" t="s">
         <v>1004</v>
       </c>
@@ -46917,7 +46954,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="316" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="316" spans="1:19">
       <c r="A316" t="s">
         <v>157</v>
       </c>
@@ -46976,7 +47013,7 @@
         <v>959</v>
       </c>
     </row>
-    <row r="317" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="317" spans="1:19" ht="16">
       <c r="L317" t="s">
         <v>994</v>
       </c>
@@ -46993,7 +47030,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="318" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="318" spans="1:19">
       <c r="A318" t="s">
         <v>158</v>
       </c>
@@ -47052,7 +47089,7 @@
         <v>960</v>
       </c>
     </row>
-    <row r="319" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="319" spans="1:19" ht="16">
       <c r="L319" t="s">
         <v>992</v>
       </c>
@@ -47069,7 +47106,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="320" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="320" spans="1:19">
       <c r="A320" t="s">
         <v>159</v>
       </c>
@@ -47128,7 +47165,7 @@
         <v>960</v>
       </c>
     </row>
-    <row r="321" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="321" spans="1:19" ht="16">
       <c r="L321" t="s">
         <v>992</v>
       </c>
@@ -47145,7 +47182,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="322" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="322" spans="1:19">
       <c r="A322" t="s">
         <v>160</v>
       </c>
@@ -47204,7 +47241,7 @@
         <v>961</v>
       </c>
     </row>
-    <row r="323" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="323" spans="1:19" ht="16">
       <c r="L323" t="s">
         <v>998</v>
       </c>
@@ -47221,7 +47258,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="324" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="324" spans="1:19">
       <c r="A324" t="s">
         <v>161</v>
       </c>
@@ -47280,7 +47317,7 @@
         <v>961</v>
       </c>
     </row>
-    <row r="325" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="325" spans="1:19" ht="16">
       <c r="L325" t="s">
         <v>998</v>
       </c>
@@ -47297,7 +47334,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="326" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="326" spans="1:19">
       <c r="A326" t="s">
         <v>162</v>
       </c>
@@ -47356,7 +47393,7 @@
         <v>961</v>
       </c>
     </row>
-    <row r="327" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="327" spans="1:19" ht="16">
       <c r="L327" t="s">
         <v>998</v>
       </c>
@@ -47373,7 +47410,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="328" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="328" spans="1:19">
       <c r="A328" t="s">
         <v>163</v>
       </c>
@@ -47432,7 +47469,7 @@
         <v>961</v>
       </c>
     </row>
-    <row r="329" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="329" spans="1:19" ht="16">
       <c r="L329" t="s">
         <v>998</v>
       </c>
@@ -47449,7 +47486,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="330" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="330" spans="1:19">
       <c r="A330" t="s">
         <v>164</v>
       </c>
@@ -47508,7 +47545,7 @@
         <v>961</v>
       </c>
     </row>
-    <row r="331" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="331" spans="1:19" ht="16">
       <c r="L331" t="s">
         <v>998</v>
       </c>
@@ -47525,7 +47562,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="332" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="332" spans="1:19">
       <c r="A332" t="s">
         <v>165</v>
       </c>
@@ -47584,7 +47621,7 @@
         <v>961</v>
       </c>
     </row>
-    <row r="333" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="333" spans="1:19" ht="16">
       <c r="L333" t="s">
         <v>998</v>
       </c>
@@ -47601,7 +47638,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="334" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="334" spans="1:19">
       <c r="A334" t="s">
         <v>166</v>
       </c>
@@ -47660,7 +47697,7 @@
         <v>962</v>
       </c>
     </row>
-    <row r="335" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="335" spans="1:19" ht="16">
       <c r="L335" t="s">
         <v>998</v>
       </c>
@@ -47677,7 +47714,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="336" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="336" spans="1:19">
       <c r="A336" t="s">
         <v>167</v>
       </c>
@@ -47736,7 +47773,7 @@
         <v>962</v>
       </c>
     </row>
-    <row r="337" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="337" spans="1:19" ht="16">
       <c r="L337" t="s">
         <v>998</v>
       </c>
@@ -47753,7 +47790,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="338" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="338" spans="1:19">
       <c r="A338" t="s">
         <v>168</v>
       </c>
@@ -47812,7 +47849,7 @@
         <v>962</v>
       </c>
     </row>
-    <row r="339" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="339" spans="1:19" ht="16">
       <c r="L339" t="s">
         <v>994</v>
       </c>
@@ -47829,7 +47866,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="340" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="340" spans="1:19">
       <c r="A340" t="s">
         <v>169</v>
       </c>
@@ -47888,7 +47925,7 @@
         <v>962</v>
       </c>
     </row>
-    <row r="341" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="341" spans="1:19" ht="16">
       <c r="L341" t="s">
         <v>994</v>
       </c>
@@ -47919,15 +47956,15 @@
       <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="15.5" customWidth="1"/>
-    <col min="6" max="6" width="18.875" customWidth="1"/>
-    <col min="7" max="7" width="16.125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="22.125" customWidth="1"/>
+    <col min="6" max="6" width="18.83203125" customWidth="1"/>
+    <col min="7" max="7" width="16.1640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="22.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10">
       <c r="A1" t="s">
         <v>170</v>
       </c>
